--- a/src/be/NovationCircuit/midiMapping.xlsx
+++ b/src/be/NovationCircuit/midiMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_p\midi-mplx\src\be\NovationCircuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C3C1C5-B020-414A-B09B-ADD28128AA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451186DC-5FB8-475E-B778-4A7FE5A04E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="midiMapping" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>sysex patch address: 60</t>
   </si>
   <si>
-    <t>0: Normal; 1: Osc 1 bypasses the filter;  2: Osc 1 + Osc 2 bypasses the filter</t>
-  </si>
-  <si>
     <t>drive</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>sysex patch address: 63</t>
   </si>
   <si>
-    <t>0: low pass 12dB; 1: low pass 24dB; 2: band pass 6/\6_x0006_dB; 3: band pass 12/\12 dB; 4: high pass 12dB; 5: high pass 24dB</t>
-  </si>
-  <si>
     <t>frequency</t>
   </si>
   <si>
@@ -2024,6 +2018,12 @@
   </si>
   <si>
     <t>#ddb</t>
+  </si>
+  <si>
+    <t>0: Normal; 1: Osc 1 bypass;  2: Osc 1 +  2 bypass</t>
+  </si>
+  <si>
+    <t>0: low pass 12dB; 1: low pass 24dB; 2: band pass 6/\6 dB; 3: band pass 12/\12 dB; 4: high pass 12dB; 5: high pass 24dB</t>
   </si>
 </sst>
 </file>
@@ -2895,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2919,10 +2919,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
@@ -2955,7 +2955,7 @@
         <v>Polyphony Mode</v>
       </c>
       <c r="M2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -2988,7 +2988,7 @@
         <v>Portamento Rate</v>
       </c>
       <c r="M3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>Pre-Glide</v>
       </c>
       <c r="M4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3048,7 +3048,7 @@
         <v>Keyboard Octave</v>
       </c>
       <c r="M5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
@@ -3081,7 +3081,7 @@
         <v>wave</v>
       </c>
       <c r="M6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N6" t="s">
         <v>25</v>
@@ -3114,7 +3114,7 @@
         <v>wave interpolate</v>
       </c>
       <c r="M7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>pulse width index</v>
       </c>
       <c r="M8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
         <v>virtual sync depth</v>
       </c>
       <c r="M9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>density</v>
       </c>
       <c r="M10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
         <v>density detune</v>
       </c>
       <c r="M11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
         <v>semitones</v>
       </c>
       <c r="M12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>cents</v>
       </c>
       <c r="M13" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>pitchbend</v>
       </c>
       <c r="M14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3354,7 +3354,7 @@
         <v>wave</v>
       </c>
       <c r="M15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
@@ -3387,7 +3387,7 @@
         <v>wave interpolate</v>
       </c>
       <c r="M16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>pulse width index</v>
       </c>
       <c r="M17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>virtual sync depth</v>
       </c>
       <c r="M18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3477,7 +3477,7 @@
         <v>density</v>
       </c>
       <c r="M19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>density detune</v>
       </c>
       <c r="M20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>semitones</v>
       </c>
       <c r="M21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>cents</v>
       </c>
       <c r="M22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <v>pitchbend</v>
       </c>
       <c r="M23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>osc 1 level</v>
       </c>
       <c r="M24" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>osc 2 level</v>
       </c>
       <c r="M25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>ring mod level</v>
       </c>
       <c r="M26" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>noise level</v>
       </c>
       <c r="M27" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>pre FX level</v>
       </c>
       <c r="M28" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N28" t="s">
         <v>71</v>
@@ -3780,7 +3780,7 @@
         <v>post FX level</v>
       </c>
       <c r="M29" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N29" t="s">
         <v>71</v>
@@ -3813,10 +3813,10 @@
         <v>routing</v>
       </c>
       <c r="M30" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N30" t="s">
-        <v>77</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3824,16 +3824,16 @@
         <v>74</v>
       </c>
       <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
         <v>78</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>127</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
       </c>
       <c r="F31">
         <v>63</v>
@@ -3846,7 +3846,7 @@
         <v>drive</v>
       </c>
       <c r="M31" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3854,7 +3854,7 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32">
         <v>65</v>
@@ -3876,10 +3876,10 @@
         <v>drive type</v>
       </c>
       <c r="M32" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33">
         <v>68</v>
@@ -3909,10 +3909,10 @@
         <v>type</v>
       </c>
       <c r="M33" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N33" t="s">
-        <v>85</v>
+        <v>667</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F34">
         <v>74</v>
@@ -3942,7 +3942,7 @@
         <v>frequency</v>
       </c>
       <c r="M34" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35">
         <v>69</v>
@@ -3972,7 +3972,7 @@
         <v>tracking</v>
       </c>
       <c r="M35" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F36">
         <v>71</v>
@@ -4002,7 +4002,7 @@
         <v>resonance</v>
       </c>
       <c r="M36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -4010,7 +4010,7 @@
         <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F37">
         <v>78</v>
@@ -4032,7 +4032,7 @@
         <v>Q normalise</v>
       </c>
       <c r="M37" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F38">
         <v>79</v>
@@ -4062,24 +4062,24 @@
         <v>env 2 to frequency</v>
       </c>
       <c r="M38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
         <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>127</v>
-      </c>
-      <c r="E39" t="s">
-        <v>98</v>
       </c>
       <c r="F39">
         <v>108</v>
@@ -4092,15 +4092,15 @@
         <v>env 1 velocity</v>
       </c>
       <c r="M39" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F40">
         <v>73</v>
@@ -4122,15 +4122,15 @@
         <v>env 1 attack</v>
       </c>
       <c r="M40" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F41">
         <v>75</v>
@@ -4152,15 +4152,15 @@
         <v>env 1 decay</v>
       </c>
       <c r="M41" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F42">
         <v>70</v>
@@ -4182,15 +4182,15 @@
         <v>env 1 sustain</v>
       </c>
       <c r="M42" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F43">
         <v>72</v>
@@ -4212,15 +4212,15 @@
         <v>env 1 release</v>
       </c>
       <c r="M43" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4245,15 +4245,15 @@
         <v>env 2 velocity</v>
       </c>
       <c r="M44" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4278,15 +4278,15 @@
         <v>env 2 attack</v>
       </c>
       <c r="M45" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4311,15 +4311,15 @@
         <v>env 2 decay</v>
       </c>
       <c r="M46" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4344,15 +4344,15 @@
         <v>env 2 sustain</v>
       </c>
       <c r="M47" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4377,15 +4377,15 @@
         <v>env 2 release</v>
       </c>
       <c r="M48" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4410,15 +4410,15 @@
         <v>env 3 delay</v>
       </c>
       <c r="M49" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4443,15 +4443,15 @@
         <v>env 3 attack</v>
       </c>
       <c r="M50" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4476,15 +4476,15 @@
         <v>env 3 decay</v>
       </c>
       <c r="M51" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4509,15 +4509,15 @@
         <v>env 3 sustain</v>
       </c>
       <c r="M52" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4542,15 +4542,15 @@
         <v>env 3 release</v>
       </c>
       <c r="M53" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4575,18 +4575,18 @@
         <v>lfo 1 waveform</v>
       </c>
       <c r="M54" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4611,18 +4611,18 @@
         <v>lfo 1 phase offset</v>
       </c>
       <c r="M55" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4647,15 +4647,15 @@
         <v>lfo 1 slew rate</v>
       </c>
       <c r="M56" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4680,15 +4680,15 @@
         <v>lfo 1 delay</v>
       </c>
       <c r="M57" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4713,15 +4713,15 @@
         <v>lfo 1 delay sync</v>
       </c>
       <c r="M58" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4746,15 +4746,15 @@
         <v>lfo 1 rate</v>
       </c>
       <c r="M59" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -4779,15 +4779,15 @@
         <v>lfo 1 rate sync</v>
       </c>
       <c r="M60" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C61" s="2">
         <v>12</v>
@@ -4796,7 +4796,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4812,18 +4812,18 @@
         <v>lfo 1 one shot</v>
       </c>
       <c r="M61" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C62" s="2">
         <v>14</v>
@@ -4832,7 +4832,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4848,18 +4848,18 @@
         <v>lfo 1 key sync</v>
       </c>
       <c r="M62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" s="2">
         <v>16</v>
@@ -4868,7 +4868,7 @@
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -4884,18 +4884,18 @@
         <v>lfo 1 common sync</v>
       </c>
       <c r="M63" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C64" s="2">
         <v>18</v>
@@ -4904,7 +4904,7 @@
         <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4920,18 +4920,18 @@
         <v>lfo 1 delay trigger</v>
       </c>
       <c r="M64" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -4940,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4956,18 +4956,18 @@
         <v>lfo 1 fade mode</v>
       </c>
       <c r="M65" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -4992,18 +4992,18 @@
         <v>lfo 2 waveform</v>
       </c>
       <c r="M66" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -5028,18 +5028,18 @@
         <v>lfo 2 phase offset</v>
       </c>
       <c r="M67" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>127</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5064,15 +5064,15 @@
         <v>lfo 2 slew rate</v>
       </c>
       <c r="M68" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>127</v>
       </c>
       <c r="E69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5097,15 +5097,15 @@
         <v>lfo 2 delay</v>
       </c>
       <c r="M69" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5130,15 +5130,15 @@
         <v>lfo 2 delay sync</v>
       </c>
       <c r="M70" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>127</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5163,15 +5163,15 @@
         <v>lfo 2 rate</v>
       </c>
       <c r="M71" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5196,15 +5196,15 @@
         <v>lfo 2 rate sync</v>
       </c>
       <c r="M72" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C73" s="2">
         <v>22</v>
@@ -5213,7 +5213,7 @@
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -5229,18 +5229,18 @@
         <v>lfo 2 one shot</v>
       </c>
       <c r="M73" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N73" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2">
         <v>24</v>
@@ -5249,7 +5249,7 @@
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5265,18 +5265,18 @@
         <v>lfo 2 key sync</v>
       </c>
       <c r="M74" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C75" s="2">
         <v>26</v>
@@ -5285,7 +5285,7 @@
         <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5301,18 +5301,18 @@
         <v>lfo 2 common sync</v>
       </c>
       <c r="M75" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C76" s="2">
         <v>28</v>
@@ -5321,7 +5321,7 @@
         <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5337,18 +5337,18 @@
         <v>lfo 2 delay trigger</v>
       </c>
       <c r="M76" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2">
         <v>4</v>
@@ -5357,7 +5357,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5373,27 +5373,27 @@
         <v>lfo 2 fade mode</v>
       </c>
       <c r="M77" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N77" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s">
         <v>180</v>
-      </c>
-      <c r="B78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <v>127</v>
-      </c>
-      <c r="E78" t="s">
-        <v>182</v>
       </c>
       <c r="F78">
         <v>91</v>
@@ -5406,15 +5406,15 @@
         <v>distortion level</v>
       </c>
       <c r="M78" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>127</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F79">
         <v>93</v>
@@ -5436,15 +5436,15 @@
         <v>chorus level</v>
       </c>
       <c r="M79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>127</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -5469,15 +5469,15 @@
         <v>EQ bass frequency</v>
       </c>
       <c r="M80" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>127</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -5502,15 +5502,15 @@
         <v>EQ bass level</v>
       </c>
       <c r="M81" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -5519,7 +5519,7 @@
         <v>127</v>
       </c>
       <c r="E82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -5535,15 +5535,15 @@
         <v>EQ mid frequency</v>
       </c>
       <c r="M82" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>127</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -5568,15 +5568,15 @@
         <v>EQ mid level</v>
       </c>
       <c r="M83" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -5601,15 +5601,15 @@
         <v>EQ treble frequency</v>
       </c>
       <c r="M84" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5634,15 +5634,15 @@
         <v>EQ treble level</v>
       </c>
       <c r="M85" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -5667,18 +5667,18 @@
         <v>distortion type</v>
       </c>
       <c r="M86" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="N86" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>127</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -5703,15 +5703,15 @@
         <v>distortion compensation</v>
       </c>
       <c r="M87" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -5736,18 +5736,18 @@
         <v>chorus type</v>
       </c>
       <c r="M88" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N88" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>127</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -5772,15 +5772,15 @@
         <v>chorus rate</v>
       </c>
       <c r="M89" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -5805,15 +5805,15 @@
         <v>chorus rate sync</v>
       </c>
       <c r="M90" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>127</v>
       </c>
       <c r="E91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -5838,15 +5838,15 @@
         <v>chorus feedback</v>
       </c>
       <c r="M91" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>127</v>
       </c>
       <c r="E92" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -5871,15 +5871,15 @@
         <v>chorus mod depth</v>
       </c>
       <c r="M92" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -5904,24 +5904,24 @@
         <v>chorus delay</v>
       </c>
       <c r="M93" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
         <v>215</v>
-      </c>
-      <c r="B94" t="s">
-        <v>216</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>12</v>
-      </c>
-      <c r="E94" t="s">
-        <v>217</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -5937,15 +5937,15 @@
         <v>mod matrix 1 source 1</v>
       </c>
       <c r="N94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -5954,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -5970,15 +5970,15 @@
         <v>mod matrix 1 source 2</v>
       </c>
       <c r="N95" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>127</v>
       </c>
       <c r="E96" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -6017,7 +6017,7 @@
         <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -6033,15 +6033,15 @@
         <v>mod matrix 1 destination</v>
       </c>
       <c r="N97" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -6066,15 +6066,15 @@
         <v>mod matrix 2 source 1</v>
       </c>
       <c r="N98" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B99" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -6099,15 +6099,15 @@
         <v>mod matrix 2 source 2</v>
       </c>
       <c r="N99" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>127</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -6134,10 +6134,10 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -6162,15 +6162,15 @@
         <v>mod matrix 2 destination</v>
       </c>
       <c r="N101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -6195,15 +6195,15 @@
         <v>mod matrix 3 source 1</v>
       </c>
       <c r="N102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -6212,7 +6212,7 @@
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -6228,15 +6228,15 @@
         <v>mod matrix 3 source 2</v>
       </c>
       <c r="N103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>127</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -6291,15 +6291,15 @@
         <v>mod matrix 3 destination</v>
       </c>
       <c r="N105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -6324,15 +6324,15 @@
         <v>mod matrix 4 source 1</v>
       </c>
       <c r="N106" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -6357,15 +6357,15 @@
         <v>mod matrix 4 source 2</v>
       </c>
       <c r="N107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>17</v>
       </c>
       <c r="E109" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -6420,15 +6420,15 @@
         <v>mod matrix 4 destination</v>
       </c>
       <c r="N109" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -6453,15 +6453,15 @@
         <v>mod matrix 5 source 1</v>
       </c>
       <c r="N110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -6470,7 +6470,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -6486,15 +6486,15 @@
         <v>mod matrix 5 source 2</v>
       </c>
       <c r="N111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>127</v>
       </c>
       <c r="E112" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -6521,10 +6521,10 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -6549,15 +6549,15 @@
         <v>mod matrix 5 destination</v>
       </c>
       <c r="N113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -6582,15 +6582,15 @@
         <v>mod matrix 6 source 1</v>
       </c>
       <c r="N114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -6615,15 +6615,15 @@
         <v>mod matrix 6 source 2</v>
       </c>
       <c r="N115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B116" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -6632,7 +6632,7 @@
         <v>127</v>
       </c>
       <c r="E116" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -6678,15 +6678,15 @@
         <v>mod matrix 6 destination</v>
       </c>
       <c r="N117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B118" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -6711,15 +6711,15 @@
         <v>mod matrix 7 source 1</v>
       </c>
       <c r="N118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -6728,7 +6728,7 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -6744,15 +6744,15 @@
         <v>mod matrix 7 source 2</v>
       </c>
       <c r="N119" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>127</v>
       </c>
       <c r="E120" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -6791,7 +6791,7 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -6807,15 +6807,15 @@
         <v>mod matrix 7 destination</v>
       </c>
       <c r="N121" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -6840,15 +6840,15 @@
         <v>mod matrix 8 source 1</v>
       </c>
       <c r="N122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -6857,7 +6857,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -6873,15 +6873,15 @@
         <v>mod matrix 8 source 2</v>
       </c>
       <c r="N123" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -6908,10 +6908,10 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -6920,7 +6920,7 @@
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6936,15 +6936,15 @@
         <v>mod matrix 8 destination</v>
       </c>
       <c r="N125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B126" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -6969,15 +6969,15 @@
         <v>mod matrix 9 source 1</v>
       </c>
       <c r="N126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -7002,15 +7002,15 @@
         <v>mod matrix 9 source 2</v>
       </c>
       <c r="N127" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -7037,10 +7037,10 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -7065,15 +7065,15 @@
         <v>mod matrix 9 destination</v>
       </c>
       <c r="N129" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B130" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -7098,15 +7098,15 @@
         <v>mod matrix 10 source 1</v>
       </c>
       <c r="N130" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B131" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -7131,15 +7131,15 @@
         <v>mod matrix 10 source 2</v>
       </c>
       <c r="N131" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -7148,7 +7148,7 @@
         <v>127</v>
       </c>
       <c r="E132" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -7166,10 +7166,10 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -7194,15 +7194,15 @@
         <v>mod matrix 10 destination</v>
       </c>
       <c r="N133" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -7227,15 +7227,15 @@
         <v>mod matrix 11 source 1</v>
       </c>
       <c r="N134" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -7260,15 +7260,15 @@
         <v>mod matrix 11 source 2</v>
       </c>
       <c r="N135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -7277,7 +7277,7 @@
         <v>127</v>
       </c>
       <c r="E136" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -7295,10 +7295,10 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -7307,7 +7307,7 @@
         <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -7323,15 +7323,15 @@
         <v>mod matrix 11 destination</v>
       </c>
       <c r="N137" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -7340,7 +7340,7 @@
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -7356,15 +7356,15 @@
         <v>mod matrix 12 source 1</v>
       </c>
       <c r="N138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -7389,15 +7389,15 @@
         <v>mod matrix 12 source 2</v>
       </c>
       <c r="N139" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>127</v>
       </c>
       <c r="E140" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -7424,10 +7424,10 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -7436,7 +7436,7 @@
         <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -7452,15 +7452,15 @@
         <v>mod matrix 12 destination</v>
       </c>
       <c r="N141" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B142" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -7485,15 +7485,15 @@
         <v>mod matrix 13 source 1</v>
       </c>
       <c r="N142" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -7518,15 +7518,15 @@
         <v>mod matrix 13 source 2</v>
       </c>
       <c r="N143" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>127</v>
       </c>
       <c r="E144" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         <v>17</v>
       </c>
       <c r="E145" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -7581,15 +7581,15 @@
         <v>mod matrix 13 destination</v>
       </c>
       <c r="N145" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -7598,7 +7598,7 @@
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -7614,15 +7614,15 @@
         <v>mod matrix 14 source 1</v>
       </c>
       <c r="N146" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B147" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -7631,7 +7631,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -7647,15 +7647,15 @@
         <v>mod matrix 14 source 2</v>
       </c>
       <c r="N147" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B148" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>127</v>
       </c>
       <c r="E148" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -7682,10 +7682,10 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B149" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -7710,15 +7710,15 @@
         <v>mod matrix 14 destination</v>
       </c>
       <c r="N149" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B150" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -7727,7 +7727,7 @@
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -7743,15 +7743,15 @@
         <v>mod matrix 15 source 1</v>
       </c>
       <c r="N150" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B151" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -7776,15 +7776,15 @@
         <v>mod matrix 15 source 2</v>
       </c>
       <c r="N151" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>127</v>
       </c>
       <c r="E152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B153" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -7823,7 +7823,7 @@
         <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -7839,15 +7839,15 @@
         <v>mod matrix 15 destination</v>
       </c>
       <c r="N153" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B154" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -7872,15 +7872,15 @@
         <v>mod matrix 16 source 1</v>
       </c>
       <c r="N154" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B155" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -7889,7 +7889,7 @@
         <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -7905,15 +7905,15 @@
         <v>mod matrix 16 source 2</v>
       </c>
       <c r="N155" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B156" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -7922,7 +7922,7 @@
         <v>127</v>
       </c>
       <c r="E156" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -7940,10 +7940,10 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B157" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>17</v>
       </c>
       <c r="E157" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -7968,15 +7968,15 @@
         <v>mod matrix 16 destination</v>
       </c>
       <c r="N157" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B158" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -7985,7 +7985,7 @@
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -8001,15 +8001,15 @@
         <v>mod matrix 17 source 1</v>
       </c>
       <c r="N158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B159" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -8018,7 +8018,7 @@
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -8034,15 +8034,15 @@
         <v>mod matrix 17 source 2</v>
       </c>
       <c r="N159" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B160" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -8051,7 +8051,7 @@
         <v>127</v>
       </c>
       <c r="E160" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -8069,10 +8069,10 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B161" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -8097,15 +8097,15 @@
         <v>mod matrix 17 destination</v>
       </c>
       <c r="N161" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B162" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -8114,7 +8114,7 @@
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -8130,15 +8130,15 @@
         <v>mod matrix 18 source 1</v>
       </c>
       <c r="N162" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B163" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -8163,15 +8163,15 @@
         <v>mod matrix 18 source 2</v>
       </c>
       <c r="N163" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B164" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -8180,7 +8180,7 @@
         <v>127</v>
       </c>
       <c r="E164" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -8198,10 +8198,10 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B165" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -8226,15 +8226,15 @@
         <v>mod matrix 18 destination</v>
       </c>
       <c r="N165" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -8259,15 +8259,15 @@
         <v>mod matrix 19 source 1</v>
       </c>
       <c r="N166" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B167" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -8292,15 +8292,15 @@
         <v>mod matrix 19 source 2</v>
       </c>
       <c r="N167" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B168" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>127</v>
       </c>
       <c r="E168" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -8327,10 +8327,10 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B169" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -8355,15 +8355,15 @@
         <v>mod matrix 19 destination</v>
       </c>
       <c r="N169" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -8388,15 +8388,15 @@
         <v>mod matrix 20 source 1</v>
       </c>
       <c r="N170" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B171" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -8421,15 +8421,15 @@
         <v>mod matrix 20 source 2</v>
       </c>
       <c r="N171" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B172" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -8438,7 +8438,7 @@
         <v>127</v>
       </c>
       <c r="E172" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B173" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -8484,24 +8484,24 @@
         <v>mod matrix 20 destination</v>
       </c>
       <c r="N173" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>376</v>
+      </c>
+      <c r="B174" t="s">
+        <v>377</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>127</v>
+      </c>
+      <c r="E174" t="s">
         <v>378</v>
-      </c>
-      <c r="B174" t="s">
-        <v>379</v>
-      </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>127</v>
-      </c>
-      <c r="E174" t="s">
-        <v>380</v>
       </c>
       <c r="F174">
         <v>80</v>
@@ -8516,10 +8516,10 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B175" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>70</v>
       </c>
       <c r="E175" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -8546,10 +8546,10 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B176" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -8558,7 +8558,7 @@
         <v>127</v>
       </c>
       <c r="E176" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -8576,10 +8576,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B177" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -8588,7 +8588,7 @@
         <v>127</v>
       </c>
       <c r="E177" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H177">
         <v>3</v>
@@ -8606,10 +8606,10 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B178" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>127</v>
       </c>
       <c r="E178" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H178">
         <v>3</v>
@@ -8636,10 +8636,10 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B179" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -8648,7 +8648,7 @@
         <v>70</v>
       </c>
       <c r="E179" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H179">
         <v>3</v>
@@ -8666,10 +8666,10 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B180" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>127</v>
       </c>
       <c r="E180" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -8696,10 +8696,10 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B181" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>127</v>
       </c>
       <c r="E181" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -8726,10 +8726,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B182" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -8738,7 +8738,7 @@
         <v>127</v>
       </c>
       <c r="E182" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -8756,10 +8756,10 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B183" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>70</v>
       </c>
       <c r="E183" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -8786,10 +8786,10 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B184" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>127</v>
       </c>
       <c r="E184" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -8816,10 +8816,10 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B185" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>127</v>
       </c>
       <c r="E185" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -8846,10 +8846,10 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B186" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>127</v>
       </c>
       <c r="E186" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H186">
         <v>3</v>
@@ -8876,10 +8876,10 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B187" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>70</v>
       </c>
       <c r="E187" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -8906,10 +8906,10 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B188" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>127</v>
       </c>
       <c r="E188" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -8936,10 +8936,10 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B189" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>127</v>
       </c>
       <c r="E189" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H189">
         <v>3</v>
@@ -8966,10 +8966,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B190" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>127</v>
       </c>
       <c r="E190" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -8996,10 +8996,10 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B191" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>127</v>
       </c>
       <c r="E191" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F191">
         <v>81</v>
@@ -9023,10 +9023,10 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B192" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>70</v>
       </c>
       <c r="E192" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H192">
         <v>3</v>
@@ -9053,10 +9053,10 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B193" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -9065,7 +9065,7 @@
         <v>127</v>
       </c>
       <c r="E193" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -9083,10 +9083,10 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B194" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>127</v>
       </c>
       <c r="E194" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -9113,10 +9113,10 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B195" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>127</v>
       </c>
       <c r="E195" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -9143,10 +9143,10 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B196" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -9155,7 +9155,7 @@
         <v>70</v>
       </c>
       <c r="E196" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -9173,10 +9173,10 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B197" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>127</v>
       </c>
       <c r="E197" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -9203,10 +9203,10 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B198" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -9215,7 +9215,7 @@
         <v>127</v>
       </c>
       <c r="E198" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H198">
         <v>3</v>
@@ -9233,10 +9233,10 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B199" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>127</v>
       </c>
       <c r="E199" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H199">
         <v>3</v>
@@ -9263,10 +9263,10 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B200" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         <v>70</v>
       </c>
       <c r="E200" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -9293,10 +9293,10 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B201" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>127</v>
       </c>
       <c r="E201" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -9323,10 +9323,10 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B202" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>127</v>
       </c>
       <c r="E202" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -9353,10 +9353,10 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B203" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>127</v>
       </c>
       <c r="E203" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -9383,10 +9383,10 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B204" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -9395,7 +9395,7 @@
         <v>70</v>
       </c>
       <c r="E204" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -9413,10 +9413,10 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B205" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>127</v>
       </c>
       <c r="E205" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -9443,10 +9443,10 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B206" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>127</v>
       </c>
       <c r="E206" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -9473,10 +9473,10 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B207" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>127</v>
       </c>
       <c r="E207" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -9503,10 +9503,10 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B208" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>127</v>
       </c>
       <c r="E208" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F208">
         <v>82</v>
@@ -9530,10 +9530,10 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B209" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>70</v>
       </c>
       <c r="E209" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H209">
         <v>3</v>
@@ -9560,10 +9560,10 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B210" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -9572,7 +9572,7 @@
         <v>127</v>
       </c>
       <c r="E210" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H210">
         <v>3</v>
@@ -9590,10 +9590,10 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B211" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>127</v>
       </c>
       <c r="E211" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -9620,10 +9620,10 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B212" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>127</v>
       </c>
       <c r="E212" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -9650,10 +9650,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B213" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -9662,7 +9662,7 @@
         <v>70</v>
       </c>
       <c r="E213" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H213">
         <v>3</v>
@@ -9680,10 +9680,10 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B214" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>127</v>
       </c>
       <c r="E214" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H214">
         <v>3</v>
@@ -9710,10 +9710,10 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B215" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>127</v>
       </c>
       <c r="E215" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -9740,10 +9740,10 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B216" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>127</v>
       </c>
       <c r="E216" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H216">
         <v>3</v>
@@ -9770,10 +9770,10 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>70</v>
       </c>
       <c r="E217" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H217">
         <v>3</v>
@@ -9800,10 +9800,10 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B218" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -9812,7 +9812,7 @@
         <v>127</v>
       </c>
       <c r="E218" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -9830,10 +9830,10 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B219" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -9842,7 +9842,7 @@
         <v>127</v>
       </c>
       <c r="E219" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H219">
         <v>3</v>
@@ -9860,10 +9860,10 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B220" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>127</v>
       </c>
       <c r="E220" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -9890,10 +9890,10 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B221" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>70</v>
       </c>
       <c r="E221" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -9920,10 +9920,10 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B222" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -9932,7 +9932,7 @@
         <v>127</v>
       </c>
       <c r="E222" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H222">
         <v>3</v>
@@ -9950,10 +9950,10 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B223" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>127</v>
       </c>
       <c r="E223" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -9980,10 +9980,10 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B224" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -9992,7 +9992,7 @@
         <v>127</v>
       </c>
       <c r="E224" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -10010,10 +10010,10 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B225" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>127</v>
       </c>
       <c r="E225" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F225">
         <v>83</v>
@@ -10037,10 +10037,10 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B226" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>70</v>
       </c>
       <c r="E226" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H226">
         <v>3</v>
@@ -10067,10 +10067,10 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B227" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C227" s="2">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>127</v>
       </c>
       <c r="E227" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -10097,10 +10097,10 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B228" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>127</v>
       </c>
       <c r="E228" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -10127,10 +10127,10 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B229" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C229" s="2">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>127</v>
       </c>
       <c r="E229" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -10157,10 +10157,10 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B230" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C230" s="2">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>70</v>
       </c>
       <c r="E230" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -10187,10 +10187,10 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B231" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>127</v>
       </c>
       <c r="E231" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H231">
         <v>3</v>
@@ -10217,10 +10217,10 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B232" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>127</v>
       </c>
       <c r="E232" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H232">
         <v>3</v>
@@ -10247,10 +10247,10 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B233" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -10259,7 +10259,7 @@
         <v>127</v>
       </c>
       <c r="E233" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H233">
         <v>3</v>
@@ -10277,10 +10277,10 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B234" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>70</v>
       </c>
       <c r="E234" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H234">
         <v>3</v>
@@ -10307,10 +10307,10 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B235" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -10319,7 +10319,7 @@
         <v>127</v>
       </c>
       <c r="E235" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H235">
         <v>3</v>
@@ -10337,10 +10337,10 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B236" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>127</v>
       </c>
       <c r="E236" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -10367,10 +10367,10 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B237" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>127</v>
       </c>
       <c r="E237" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H237">
         <v>3</v>
@@ -10397,10 +10397,10 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B238" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>70</v>
       </c>
       <c r="E238" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H238">
         <v>3</v>
@@ -10427,10 +10427,10 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B239" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C239" s="2">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>127</v>
       </c>
       <c r="E239" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -10457,10 +10457,10 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B240" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C240" s="2">
         <v>0</v>
@@ -10469,7 +10469,7 @@
         <v>127</v>
       </c>
       <c r="E240" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H240">
         <v>3</v>
@@ -10487,10 +10487,10 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B241" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C241" s="2">
         <v>0</v>
@@ -10499,7 +10499,7 @@
         <v>127</v>
       </c>
       <c r="E241" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H241">
         <v>3</v>
@@ -10517,10 +10517,10 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B242" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C242" s="2">
         <v>0</v>
@@ -10529,7 +10529,7 @@
         <v>127</v>
       </c>
       <c r="E242" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F242">
         <v>84</v>
@@ -10544,10 +10544,10 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B243" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -10556,7 +10556,7 @@
         <v>70</v>
       </c>
       <c r="E243" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H243">
         <v>3</v>
@@ -10574,10 +10574,10 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B244" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>127</v>
       </c>
       <c r="E244" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H244">
         <v>3</v>
@@ -10604,10 +10604,10 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B245" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -10616,7 +10616,7 @@
         <v>127</v>
       </c>
       <c r="E245" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -10634,10 +10634,10 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B246" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C246" s="2">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>127</v>
       </c>
       <c r="E246" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -10664,10 +10664,10 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B247" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C247" s="2">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>70</v>
       </c>
       <c r="E247" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H247">
         <v>3</v>
@@ -10694,10 +10694,10 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B248" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C248" s="2">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>127</v>
       </c>
       <c r="E248" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -10724,10 +10724,10 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B249" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C249" s="2">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>127</v>
       </c>
       <c r="E249" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H249">
         <v>3</v>
@@ -10754,10 +10754,10 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B250" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C250" s="2">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>127</v>
       </c>
       <c r="E250" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H250">
         <v>3</v>
@@ -10784,10 +10784,10 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B251" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C251" s="2">
         <v>0</v>
@@ -10796,7 +10796,7 @@
         <v>70</v>
       </c>
       <c r="E251" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H251">
         <v>3</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B252" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C252" s="2">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>127</v>
       </c>
       <c r="E252" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H252">
         <v>3</v>
@@ -10844,10 +10844,10 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B253" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C253" s="2">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>127</v>
       </c>
       <c r="E253" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H253">
         <v>3</v>
@@ -10874,10 +10874,10 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B254" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C254" s="2">
         <v>0</v>
@@ -10886,7 +10886,7 @@
         <v>127</v>
       </c>
       <c r="E254" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H254">
         <v>3</v>
@@ -10904,10 +10904,10 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B255" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C255" s="2">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>70</v>
       </c>
       <c r="E255" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H255">
         <v>3</v>
@@ -10934,10 +10934,10 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B256" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C256" s="2">
         <v>0</v>
@@ -10946,7 +10946,7 @@
         <v>127</v>
       </c>
       <c r="E256" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -10964,10 +10964,10 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B257" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C257" s="2">
         <v>0</v>
@@ -10976,7 +10976,7 @@
         <v>127</v>
       </c>
       <c r="E257" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H257">
         <v>3</v>
@@ -10994,10 +10994,10 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B258" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C258" s="2">
         <v>0</v>
@@ -11006,7 +11006,7 @@
         <v>127</v>
       </c>
       <c r="E258" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H258">
         <v>3</v>
@@ -11024,10 +11024,10 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B259" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C259" s="2">
         <v>0</v>
@@ -11036,7 +11036,7 @@
         <v>127</v>
       </c>
       <c r="E259" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F259">
         <v>85</v>
@@ -11051,10 +11051,10 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B260" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C260" s="2">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>70</v>
       </c>
       <c r="E260" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H260">
         <v>3</v>
@@ -11081,10 +11081,10 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B261" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C261" s="2">
         <v>0</v>
@@ -11093,7 +11093,7 @@
         <v>127</v>
       </c>
       <c r="E261" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H261">
         <v>3</v>
@@ -11111,10 +11111,10 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B262" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C262" s="2">
         <v>0</v>
@@ -11123,7 +11123,7 @@
         <v>127</v>
       </c>
       <c r="E262" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H262">
         <v>3</v>
@@ -11141,10 +11141,10 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B263" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C263" s="2">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>127</v>
       </c>
       <c r="E263" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H263">
         <v>3</v>
@@ -11171,10 +11171,10 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B264" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C264" s="2">
         <v>0</v>
@@ -11183,7 +11183,7 @@
         <v>70</v>
       </c>
       <c r="E264" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H264">
         <v>3</v>
@@ -11201,10 +11201,10 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B265" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C265" s="2">
         <v>0</v>
@@ -11213,7 +11213,7 @@
         <v>127</v>
       </c>
       <c r="E265" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H265">
         <v>3</v>
@@ -11231,10 +11231,10 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B266" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C266" s="2">
         <v>0</v>
@@ -11243,7 +11243,7 @@
         <v>127</v>
       </c>
       <c r="E266" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H266">
         <v>3</v>
@@ -11261,10 +11261,10 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B267" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C267" s="2">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>127</v>
       </c>
       <c r="E267" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -11291,10 +11291,10 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B268" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C268" s="2">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>70</v>
       </c>
       <c r="E268" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H268">
         <v>3</v>
@@ -11321,10 +11321,10 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B269" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C269" s="2">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>127</v>
       </c>
       <c r="E269" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H269">
         <v>3</v>
@@ -11351,10 +11351,10 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B270" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C270" s="2">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>127</v>
       </c>
       <c r="E270" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H270">
         <v>3</v>
@@ -11381,10 +11381,10 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B271" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C271" s="2">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>127</v>
       </c>
       <c r="E271" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H271">
         <v>3</v>
@@ -11411,10 +11411,10 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B272" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C272" s="2">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>70</v>
       </c>
       <c r="E272" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H272">
         <v>3</v>
@@ -11441,10 +11441,10 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B273" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C273" s="2">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>127</v>
       </c>
       <c r="E273" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H273">
         <v>3</v>
@@ -11471,10 +11471,10 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B274" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C274" s="2">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>127</v>
       </c>
       <c r="E274" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H274">
         <v>3</v>
@@ -11501,10 +11501,10 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B275" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C275" s="2">
         <v>0</v>
@@ -11513,7 +11513,7 @@
         <v>127</v>
       </c>
       <c r="E275" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H275">
         <v>3</v>
@@ -11531,10 +11531,10 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B276" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C276" s="2">
         <v>0</v>
@@ -11543,7 +11543,7 @@
         <v>127</v>
       </c>
       <c r="E276" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F276">
         <v>86</v>
@@ -11558,10 +11558,10 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B277" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C277" s="2">
         <v>0</v>
@@ -11570,7 +11570,7 @@
         <v>70</v>
       </c>
       <c r="E277" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H277">
         <v>3</v>
@@ -11588,10 +11588,10 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B278" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C278" s="2">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>127</v>
       </c>
       <c r="E278" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H278">
         <v>3</v>
@@ -11618,10 +11618,10 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B279" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C279" s="2">
         <v>0</v>
@@ -11630,7 +11630,7 @@
         <v>127</v>
       </c>
       <c r="E279" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -11648,10 +11648,10 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B280" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C280" s="2">
         <v>0</v>
@@ -11660,7 +11660,7 @@
         <v>127</v>
       </c>
       <c r="E280" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H280">
         <v>3</v>
@@ -11678,10 +11678,10 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B281" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C281" s="2">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>70</v>
       </c>
       <c r="E281" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H281">
         <v>3</v>
@@ -11708,10 +11708,10 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B282" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C282" s="2">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>127</v>
       </c>
       <c r="E282" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -11738,10 +11738,10 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B283" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C283" s="2">
         <v>0</v>
@@ -11750,7 +11750,7 @@
         <v>127</v>
       </c>
       <c r="E283" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H283">
         <v>3</v>
@@ -11768,10 +11768,10 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B284" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C284" s="2">
         <v>0</v>
@@ -11780,7 +11780,7 @@
         <v>127</v>
       </c>
       <c r="E284" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -11798,10 +11798,10 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B285" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C285" s="2">
         <v>0</v>
@@ -11810,7 +11810,7 @@
         <v>70</v>
       </c>
       <c r="E285" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H285">
         <v>3</v>
@@ -11828,10 +11828,10 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B286" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C286" s="2">
         <v>0</v>
@@ -11840,7 +11840,7 @@
         <v>127</v>
       </c>
       <c r="E286" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H286">
         <v>3</v>
@@ -11858,10 +11858,10 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B287" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C287" s="2">
         <v>0</v>
@@ -11870,7 +11870,7 @@
         <v>127</v>
       </c>
       <c r="E287" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H287">
         <v>3</v>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B288" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C288" s="2">
         <v>0</v>
@@ -11900,7 +11900,7 @@
         <v>127</v>
       </c>
       <c r="E288" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H288">
         <v>3</v>
@@ -11918,10 +11918,10 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B289" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C289" s="2">
         <v>0</v>
@@ -11930,7 +11930,7 @@
         <v>70</v>
       </c>
       <c r="E289" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -11948,10 +11948,10 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B290" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C290" s="2">
         <v>0</v>
@@ -11960,7 +11960,7 @@
         <v>127</v>
       </c>
       <c r="E290" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H290">
         <v>3</v>
@@ -11978,10 +11978,10 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B291" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C291" s="2">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>127</v>
       </c>
       <c r="E291" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H291">
         <v>3</v>
@@ -12008,10 +12008,10 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B292" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C292" s="2">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>127</v>
       </c>
       <c r="E292" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H292">
         <v>3</v>
@@ -12038,10 +12038,10 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B293" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C293" s="2">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>127</v>
       </c>
       <c r="E293" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F293">
         <v>87</v>
@@ -12065,10 +12065,10 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B294" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C294" s="2">
         <v>0</v>
@@ -12077,7 +12077,7 @@
         <v>70</v>
       </c>
       <c r="E294" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H294">
         <v>3</v>
@@ -12095,10 +12095,10 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B295" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C295" s="2">
         <v>0</v>
@@ -12107,7 +12107,7 @@
         <v>127</v>
       </c>
       <c r="E295" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H295">
         <v>3</v>
@@ -12125,10 +12125,10 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B296" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C296" s="2">
         <v>0</v>
@@ -12137,7 +12137,7 @@
         <v>127</v>
       </c>
       <c r="E296" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H296">
         <v>3</v>
@@ -12155,10 +12155,10 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B297" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C297" s="2">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>127</v>
       </c>
       <c r="E297" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H297">
         <v>3</v>
@@ -12185,10 +12185,10 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B298" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C298" s="2">
         <v>0</v>
@@ -12197,7 +12197,7 @@
         <v>70</v>
       </c>
       <c r="E298" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H298">
         <v>3</v>
@@ -12215,10 +12215,10 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B299" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C299" s="2">
         <v>0</v>
@@ -12227,7 +12227,7 @@
         <v>127</v>
       </c>
       <c r="E299" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H299">
         <v>3</v>
@@ -12245,10 +12245,10 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B300" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C300" s="2">
         <v>0</v>
@@ -12257,7 +12257,7 @@
         <v>127</v>
       </c>
       <c r="E300" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H300">
         <v>3</v>
@@ -12275,10 +12275,10 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B301" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C301" s="2">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>127</v>
       </c>
       <c r="E301" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H301">
         <v>3</v>
@@ -12305,10 +12305,10 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B302" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C302" s="2">
         <v>0</v>
@@ -12317,7 +12317,7 @@
         <v>70</v>
       </c>
       <c r="E302" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H302">
         <v>3</v>
@@ -12335,10 +12335,10 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B303" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C303" s="2">
         <v>0</v>
@@ -12347,7 +12347,7 @@
         <v>127</v>
       </c>
       <c r="E303" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H303">
         <v>3</v>
@@ -12365,10 +12365,10 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B304" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C304" s="2">
         <v>0</v>
@@ -12377,7 +12377,7 @@
         <v>127</v>
       </c>
       <c r="E304" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H304">
         <v>3</v>
@@ -12395,10 +12395,10 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B305" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C305" s="2">
         <v>0</v>
@@ -12407,7 +12407,7 @@
         <v>127</v>
       </c>
       <c r="E305" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H305">
         <v>3</v>
@@ -12425,10 +12425,10 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B306" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C306" s="2">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>70</v>
       </c>
       <c r="E306" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H306">
         <v>3</v>
@@ -12455,10 +12455,10 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B307" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C307" s="2">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         <v>127</v>
       </c>
       <c r="E307" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H307">
         <v>3</v>
@@ -12485,10 +12485,10 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B308" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C308" s="2">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>127</v>
       </c>
       <c r="E308" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H308">
         <v>3</v>
@@ -12515,10 +12515,10 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B309" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C309" s="2">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>127</v>
       </c>
       <c r="E309" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H309">
         <v>3</v>

--- a/src/be/NovationCircuit/midiMapping.xlsx
+++ b/src/be/NovationCircuit/midiMapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_p\midi-mplx\src\be\NovationCircuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA483F-A7BF-4834-84D9-78AC8AA8729A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF83D46D-DE70-4B74-83E1-F7572DA389F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="664">
   <si>
     <t>section</t>
   </si>
@@ -2009,6 +2009,9 @@
   </si>
   <si>
     <t>0: Off; 1: On</t>
+  </si>
+  <si>
+    <t>modDest</t>
   </si>
 </sst>
 </file>
@@ -2859,28 +2862,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q310"/>
+  <dimension ref="A1:R310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
-    <col min="13" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2927,10 +2932,13 @@
         <v>661</v>
       </c>
       <c r="Q1" t="s">
+        <v>663</v>
+      </c>
+      <c r="R1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2968,11 +2976,11 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3050,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3088,11 +3096,11 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3130,11 +3138,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3211,8 +3219,11 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3250,8 +3261,11 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3290,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3329,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3368,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3406,8 +3420,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3446,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3484,11 +3501,11 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3527,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3565,8 +3582,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3604,8 +3624,11 @@
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3644,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3683,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3722,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3760,8 +3783,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3800,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -3838,8 +3864,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -3877,8 +3906,11 @@
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -3916,8 +3948,11 @@
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3955,8 +3990,11 @@
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3994,11 +4032,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -4036,11 +4074,11 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -4078,11 +4116,11 @@
       <c r="P30">
         <v>0</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -4120,8 +4158,11 @@
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -4159,11 +4200,11 @@
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -4201,11 +4242,11 @@
       <c r="P33">
         <v>0</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -4243,8 +4284,11 @@
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4283,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -4321,8 +4365,11 @@
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4361,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -4400,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -4439,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -4478,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -4516,8 +4563,11 @@
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -4556,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -4595,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -4637,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -4679,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -4720,8 +4770,11 @@
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4763,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -4805,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -4847,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -4889,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -4931,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -4973,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -5015,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -5056,11 +5109,11 @@
       <c r="P54">
         <v>0</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -5101,11 +5154,11 @@
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -5147,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -5189,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -5231,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -5272,8 +5325,11 @@
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -5315,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>125</v>
       </c>
@@ -5356,11 +5412,12 @@
       <c r="P61">
         <v>12</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="Q61"/>
+      <c r="R61" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>125</v>
       </c>
@@ -5401,11 +5458,12 @@
       <c r="P62">
         <v>14</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62"/>
+      <c r="R62" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
@@ -5446,11 +5504,12 @@
       <c r="P63">
         <v>16</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="Q63"/>
+      <c r="R63" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
@@ -5491,11 +5550,12 @@
       <c r="P64">
         <v>18</v>
       </c>
-      <c r="Q64" s="3" t="s">
+      <c r="Q64"/>
+      <c r="R64" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>125</v>
       </c>
@@ -5536,11 +5596,12 @@
       <c r="P65">
         <v>0</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="Q65"/>
+      <c r="R65" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -5581,11 +5642,11 @@
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -5626,11 +5687,11 @@
       <c r="P67">
         <v>0</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -5672,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -5714,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -5756,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -5797,8 +5858,11 @@
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -5840,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>125</v>
       </c>
@@ -5881,11 +5945,12 @@
       <c r="P73">
         <v>22</v>
       </c>
-      <c r="Q73" s="3" t="s">
+      <c r="Q73"/>
+      <c r="R73" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>125</v>
       </c>
@@ -5926,11 +5991,12 @@
       <c r="P74">
         <v>24</v>
       </c>
-      <c r="Q74" s="3" t="s">
+      <c r="Q74"/>
+      <c r="R74" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>125</v>
       </c>
@@ -5971,11 +6037,12 @@
       <c r="P75">
         <v>26</v>
       </c>
-      <c r="Q75" s="3" t="s">
+      <c r="Q75"/>
+      <c r="R75" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>125</v>
       </c>
@@ -6016,11 +6083,12 @@
       <c r="P76">
         <v>28</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="Q76"/>
+      <c r="R76" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>125</v>
       </c>
@@ -6061,11 +6129,12 @@
       <c r="P77">
         <v>4</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="Q77"/>
+      <c r="R77" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -6104,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -6143,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -6185,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -6227,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -6269,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -6311,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>169</v>
       </c>
@@ -6353,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6395,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -6436,11 +6505,11 @@
       <c r="P86">
         <v>0</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -6482,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -6523,11 +6592,11 @@
       <c r="P88">
         <v>0</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -6569,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -6611,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -6653,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -6695,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -6737,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -6775,11 +6844,11 @@
       <c r="P94">
         <v>0</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -6817,11 +6886,11 @@
       <c r="P95">
         <v>0</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -6860,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -6898,11 +6967,11 @@
       <c r="P97">
         <v>0</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -6940,11 +7009,11 @@
       <c r="P98">
         <v>0</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -6982,11 +7051,11 @@
       <c r="P99">
         <v>0</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -7025,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>204</v>
       </c>
@@ -7063,11 +7132,11 @@
       <c r="P101">
         <v>0</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -7105,11 +7174,11 @@
       <c r="P102">
         <v>0</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -7147,11 +7216,11 @@
       <c r="P103">
         <v>0</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -7190,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -7228,11 +7297,11 @@
       <c r="P105">
         <v>0</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -7270,11 +7339,11 @@
       <c r="P106">
         <v>0</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="R106" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -7312,11 +7381,11 @@
       <c r="P107">
         <v>0</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="R107" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>204</v>
       </c>
@@ -7355,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>204</v>
       </c>
@@ -7393,11 +7462,11 @@
       <c r="P109">
         <v>0</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="R109" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -7435,11 +7504,11 @@
       <c r="P110">
         <v>0</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="R110" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -7477,11 +7546,11 @@
       <c r="P111">
         <v>0</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="R111" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>204</v>
       </c>
@@ -7520,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -7558,11 +7627,11 @@
       <c r="P113">
         <v>0</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="R113" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>204</v>
       </c>
@@ -7600,11 +7669,11 @@
       <c r="P114">
         <v>0</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="R114" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -7642,11 +7711,11 @@
       <c r="P115">
         <v>0</v>
       </c>
-      <c r="Q115" t="s">
+      <c r="R115" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -7685,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>204</v>
       </c>
@@ -7723,11 +7792,11 @@
       <c r="P117">
         <v>0</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="R117" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>204</v>
       </c>
@@ -7765,11 +7834,11 @@
       <c r="P118">
         <v>0</v>
       </c>
-      <c r="Q118" t="s">
+      <c r="R118" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>204</v>
       </c>
@@ -7807,11 +7876,11 @@
       <c r="P119">
         <v>0</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="R119" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>204</v>
       </c>
@@ -7850,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>204</v>
       </c>
@@ -7888,11 +7957,11 @@
       <c r="P121">
         <v>0</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="R121" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>204</v>
       </c>
@@ -7930,11 +7999,11 @@
       <c r="P122">
         <v>0</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="R122" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>204</v>
       </c>
@@ -7972,11 +8041,11 @@
       <c r="P123">
         <v>0</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="R123" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>204</v>
       </c>
@@ -8015,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>204</v>
       </c>
@@ -8053,11 +8122,11 @@
       <c r="P125">
         <v>0</v>
       </c>
-      <c r="Q125" t="s">
+      <c r="R125" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>204</v>
       </c>
@@ -8095,11 +8164,11 @@
       <c r="P126">
         <v>0</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="R126" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>204</v>
       </c>
@@ -8137,11 +8206,11 @@
       <c r="P127">
         <v>0</v>
       </c>
-      <c r="Q127" t="s">
+      <c r="R127" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>204</v>
       </c>
@@ -8180,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>204</v>
       </c>
@@ -8218,11 +8287,11 @@
       <c r="P129">
         <v>0</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="R129" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>204</v>
       </c>
@@ -8260,11 +8329,11 @@
       <c r="P130">
         <v>0</v>
       </c>
-      <c r="Q130" t="s">
+      <c r="R130" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>204</v>
       </c>
@@ -8302,11 +8371,11 @@
       <c r="P131">
         <v>0</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="R131" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -8345,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>204</v>
       </c>
@@ -8383,11 +8452,11 @@
       <c r="P133">
         <v>0</v>
       </c>
-      <c r="Q133" t="s">
+      <c r="R133" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>204</v>
       </c>
@@ -8425,11 +8494,11 @@
       <c r="P134">
         <v>0</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="R134" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -8467,11 +8536,11 @@
       <c r="P135">
         <v>0</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="R135" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>204</v>
       </c>
@@ -8510,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>204</v>
       </c>
@@ -8548,11 +8617,11 @@
       <c r="P137">
         <v>0</v>
       </c>
-      <c r="Q137" t="s">
+      <c r="R137" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>204</v>
       </c>
@@ -8590,11 +8659,11 @@
       <c r="P138">
         <v>0</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="R138" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>204</v>
       </c>
@@ -8632,11 +8701,11 @@
       <c r="P139">
         <v>0</v>
       </c>
-      <c r="Q139" t="s">
+      <c r="R139" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>204</v>
       </c>
@@ -8675,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>204</v>
       </c>
@@ -8713,11 +8782,11 @@
       <c r="P141">
         <v>0</v>
       </c>
-      <c r="Q141" t="s">
+      <c r="R141" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>204</v>
       </c>
@@ -8755,11 +8824,11 @@
       <c r="P142">
         <v>0</v>
       </c>
-      <c r="Q142" t="s">
+      <c r="R142" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>204</v>
       </c>
@@ -8797,11 +8866,11 @@
       <c r="P143">
         <v>0</v>
       </c>
-      <c r="Q143" t="s">
+      <c r="R143" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>204</v>
       </c>
@@ -8840,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>204</v>
       </c>
@@ -8878,11 +8947,11 @@
       <c r="P145">
         <v>0</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="R145" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>204</v>
       </c>
@@ -8920,11 +8989,11 @@
       <c r="P146">
         <v>0</v>
       </c>
-      <c r="Q146" t="s">
+      <c r="R146" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>204</v>
       </c>
@@ -8962,11 +9031,11 @@
       <c r="P147">
         <v>0</v>
       </c>
-      <c r="Q147" t="s">
+      <c r="R147" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>204</v>
       </c>
@@ -9005,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>204</v>
       </c>
@@ -9043,11 +9112,11 @@
       <c r="P149">
         <v>0</v>
       </c>
-      <c r="Q149" t="s">
+      <c r="R149" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>204</v>
       </c>
@@ -9085,11 +9154,11 @@
       <c r="P150">
         <v>0</v>
       </c>
-      <c r="Q150" t="s">
+      <c r="R150" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>204</v>
       </c>
@@ -9127,11 +9196,11 @@
       <c r="P151">
         <v>0</v>
       </c>
-      <c r="Q151" t="s">
+      <c r="R151" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -9170,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>204</v>
       </c>
@@ -9208,11 +9277,11 @@
       <c r="P153">
         <v>0</v>
       </c>
-      <c r="Q153" t="s">
+      <c r="R153" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>204</v>
       </c>
@@ -9250,11 +9319,11 @@
       <c r="P154">
         <v>0</v>
       </c>
-      <c r="Q154" t="s">
+      <c r="R154" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>204</v>
       </c>
@@ -9292,11 +9361,11 @@
       <c r="P155">
         <v>0</v>
       </c>
-      <c r="Q155" t="s">
+      <c r="R155" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>204</v>
       </c>
@@ -9335,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -9373,11 +9442,11 @@
       <c r="P157">
         <v>0</v>
       </c>
-      <c r="Q157" t="s">
+      <c r="R157" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>204</v>
       </c>
@@ -9415,11 +9484,11 @@
       <c r="P158">
         <v>0</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="R158" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>204</v>
       </c>
@@ -9457,11 +9526,11 @@
       <c r="P159">
         <v>0</v>
       </c>
-      <c r="Q159" t="s">
+      <c r="R159" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>204</v>
       </c>
@@ -9500,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>204</v>
       </c>
@@ -9538,11 +9607,11 @@
       <c r="P161">
         <v>0</v>
       </c>
-      <c r="Q161" t="s">
+      <c r="R161" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>204</v>
       </c>
@@ -9580,11 +9649,11 @@
       <c r="P162">
         <v>0</v>
       </c>
-      <c r="Q162" t="s">
+      <c r="R162" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>204</v>
       </c>
@@ -9622,11 +9691,11 @@
       <c r="P163">
         <v>0</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
@@ -9665,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>204</v>
       </c>
@@ -9703,11 +9772,11 @@
       <c r="P165">
         <v>0</v>
       </c>
-      <c r="Q165" t="s">
+      <c r="R165" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>204</v>
       </c>
@@ -9745,11 +9814,11 @@
       <c r="P166">
         <v>0</v>
       </c>
-      <c r="Q166" t="s">
+      <c r="R166" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -9787,11 +9856,11 @@
       <c r="P167">
         <v>0</v>
       </c>
-      <c r="Q167" t="s">
+      <c r="R167" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>204</v>
       </c>
@@ -9830,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>204</v>
       </c>
@@ -9868,11 +9937,11 @@
       <c r="P169">
         <v>0</v>
       </c>
-      <c r="Q169" t="s">
+      <c r="R169" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>204</v>
       </c>
@@ -9910,11 +9979,11 @@
       <c r="P170">
         <v>0</v>
       </c>
-      <c r="Q170" t="s">
+      <c r="R170" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -9952,11 +10021,11 @@
       <c r="P171">
         <v>0</v>
       </c>
-      <c r="Q171" t="s">
+      <c r="R171" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>204</v>
       </c>
@@ -9995,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>204</v>
       </c>
@@ -10033,11 +10102,11 @@
       <c r="P173">
         <v>0</v>
       </c>
-      <c r="Q173" t="s">
+      <c r="R173" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>367</v>
       </c>
@@ -10073,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>367</v>
       </c>
@@ -10112,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>367</v>
       </c>

--- a/src/be/NovationCircuit/midiMapping.xlsx
+++ b/src/be/NovationCircuit/midiMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_p\midi-mplx\src\be\NovationCircuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF83D46D-DE70-4B74-83E1-F7572DA389F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388A1C4-1755-40A7-A8F8-FD95CDF552F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="midiMapping" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="671">
   <si>
     <t>section</t>
   </si>
@@ -2012,6 +2012,27 @@
   </si>
   <si>
     <t>modDest</t>
+  </si>
+  <si>
+    <t>simpleColor</t>
+  </si>
+  <si>
+    <t>greenH</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>amberH</t>
+  </si>
+  <si>
+    <t>redL</t>
+  </si>
+  <si>
+    <t>redH</t>
+  </si>
+  <si>
+    <t>greenL</t>
   </si>
 </sst>
 </file>
@@ -2862,10 +2883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R310"/>
+  <dimension ref="A1:S310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y87" sqref="Y87:Z87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,14 +2899,14 @@
     <col min="8" max="8" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="26.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="18.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
-    <col min="18" max="18" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="17" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="255.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2937,8 +2958,11 @@
       <c r="R1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2979,8 +3003,11 @@
       <c r="R2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3018,8 +3045,11 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3057,8 +3087,11 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3099,8 +3132,11 @@
       <c r="R5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3141,8 +3177,11 @@
       <c r="R6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3180,8 +3219,11 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3222,8 +3264,11 @@
       <c r="Q8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3264,8 +3309,11 @@
       <c r="Q9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3303,8 +3351,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3342,8 +3393,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3381,8 +3435,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3423,8 +3480,11 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3462,8 +3522,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3504,8 +3567,11 @@
       <c r="R15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3543,8 +3609,11 @@
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3585,8 +3654,11 @@
       <c r="Q17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3627,8 +3699,11 @@
       <c r="Q18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3666,8 +3741,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3705,8 +3783,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3744,8 +3825,11 @@
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3786,8 +3870,11 @@
       <c r="Q22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3825,8 +3912,11 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -3867,8 +3957,11 @@
       <c r="Q24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -3909,8 +4002,11 @@
       <c r="Q25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -3951,8 +4047,11 @@
       <c r="Q26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3993,8 +4092,11 @@
       <c r="Q27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4035,8 +4137,11 @@
       <c r="R28" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -4077,8 +4182,11 @@
       <c r="R29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -4119,8 +4227,11 @@
       <c r="R30" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -4161,8 +4272,11 @@
       <c r="Q31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -4203,8 +4317,11 @@
       <c r="R32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -4245,8 +4362,11 @@
       <c r="R33" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -4287,8 +4407,11 @@
       <c r="Q34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4326,8 +4449,11 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -4368,8 +4494,11 @@
       <c r="Q36">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4407,8 +4536,11 @@
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -4446,8 +4578,11 @@
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -4485,8 +4620,11 @@
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -4524,8 +4662,11 @@
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -4566,8 +4707,11 @@
       <c r="Q41">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -4605,8 +4749,11 @@
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -4644,8 +4791,11 @@
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -4686,8 +4836,11 @@
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -4728,8 +4881,11 @@
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -4773,8 +4929,11 @@
       <c r="Q46">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4815,8 +4974,11 @@
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -4857,8 +5019,11 @@
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -4899,8 +5064,11 @@
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -4941,8 +5109,11 @@
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -4983,8 +5154,11 @@
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -5025,8 +5199,11 @@
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -5067,8 +5244,11 @@
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -5112,8 +5292,11 @@
       <c r="R54" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -5157,8 +5340,11 @@
       <c r="R55" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -5199,8 +5385,11 @@
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -5241,8 +5430,11 @@
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -5283,8 +5475,11 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -5328,8 +5523,11 @@
       <c r="Q59">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -5370,8 +5568,11 @@
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S60" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>125</v>
       </c>
@@ -5416,8 +5617,11 @@
       <c r="R61" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S61" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>125</v>
       </c>
@@ -5462,8 +5666,11 @@
       <c r="R62" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S62" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
@@ -5508,8 +5715,11 @@
       <c r="R63" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S63" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
@@ -5554,8 +5764,11 @@
       <c r="R64" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>125</v>
       </c>
@@ -5600,8 +5813,11 @@
       <c r="R65" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -5645,8 +5861,11 @@
       <c r="R66" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -5690,8 +5909,11 @@
       <c r="R67" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -5732,8 +5954,11 @@
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -5774,8 +5999,11 @@
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -5816,8 +6044,11 @@
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -5861,8 +6092,11 @@
       <c r="Q71">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -5903,8 +6137,11 @@
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S72" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>125</v>
       </c>
@@ -5949,8 +6186,11 @@
       <c r="R73" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S73" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>125</v>
       </c>
@@ -5995,8 +6235,11 @@
       <c r="R74" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S74" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>125</v>
       </c>
@@ -6041,8 +6284,11 @@
       <c r="R75" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S75" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>125</v>
       </c>
@@ -6087,8 +6333,11 @@
       <c r="R76" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S76" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>125</v>
       </c>
@@ -6133,8 +6382,11 @@
       <c r="R77" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -6172,8 +6424,11 @@
       <c r="P78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -6211,8 +6466,11 @@
       <c r="P79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -6253,8 +6511,11 @@
       <c r="P80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -6295,8 +6556,11 @@
       <c r="P81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -6337,8 +6601,11 @@
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -6379,8 +6646,11 @@
       <c r="P83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>169</v>
       </c>
@@ -6421,8 +6691,11 @@
       <c r="P84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6463,8 +6736,11 @@
       <c r="P85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -6508,8 +6784,11 @@
       <c r="R86" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -6550,8 +6829,11 @@
       <c r="P87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -6595,8 +6877,11 @@
       <c r="R88" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -6637,8 +6922,11 @@
       <c r="P89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -6679,8 +6967,11 @@
       <c r="P90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -6721,8 +7012,11 @@
       <c r="P91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -6763,8 +7057,11 @@
       <c r="P92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -6805,8 +7102,11 @@
       <c r="P93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -6848,7 +7148,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -6890,7 +7190,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>204</v>
       </c>

--- a/src/be/NovationCircuit/midiMapping.xlsx
+++ b/src/be/NovationCircuit/midiMapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_p\midi-mplx\src\be\NovationCircuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D340DD8-5126-49ED-A398-DF04713E4026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A78FABF-142D-4ED6-9808-E1CAD20344D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="698">
   <si>
     <t>section</t>
   </si>
@@ -2102,6 +2102,18 @@
   </si>
   <si>
     <t>cc</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -2968,30 +2980,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R368"/>
+  <dimension ref="A1:V368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC81" sqref="AC81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3046,8 +3059,20 @@
       <c r="R1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>694</v>
+      </c>
+      <c r="T1" t="s">
+        <v>695</v>
+      </c>
+      <c r="U1" t="s">
+        <v>696</v>
+      </c>
+      <c r="V1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3091,8 +3116,21 @@
       <c r="Q2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>T2+U2*8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3133,8 +3171,21 @@
       <c r="Q3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="0">T3+U3*8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3175,8 +3226,21 @@
       <c r="Q4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3220,8 +3284,21 @@
       <c r="Q5" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3244,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="str">
-        <f>SUBSTITUTE(B6, "osc 1 ", "")</f>
+        <f t="shared" ref="J6:J14" si="1">SUBSTITUTE(B6, "osc 1 ", "")</f>
         <v>wave</v>
       </c>
       <c r="K6">
@@ -3265,8 +3342,21 @@
       <c r="Q6" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3289,7 +3379,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="str">
-        <f>SUBSTITUTE(B7, "osc 1 ", "")</f>
+        <f t="shared" si="1"/>
         <v>wave interpolate</v>
       </c>
       <c r="K7">
@@ -3307,8 +3397,21 @@
       <c r="Q7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3331,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="str">
-        <f>SUBSTITUTE(B8, "osc 1 ", "")</f>
+        <f t="shared" si="1"/>
         <v>pulse width index</v>
       </c>
       <c r="K8">
@@ -3352,8 +3455,21 @@
       <c r="Q8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3376,7 +3492,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="str">
-        <f>SUBSTITUTE(B9, "osc 1 ", "")</f>
+        <f t="shared" si="1"/>
         <v>virtual sync depth</v>
       </c>
       <c r="K9">
@@ -3397,8 +3513,21 @@
       <c r="Q9" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3421,7 +3550,7 @@
         <v>8</v>
       </c>
       <c r="J10" t="str">
-        <f>SUBSTITUTE(B10, "osc 1 ", "")</f>
+        <f t="shared" si="1"/>
         <v>density</v>
       </c>
       <c r="K10">
@@ -3439,8 +3568,21 @@
       <c r="Q10" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3463,7 +3605,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="str">
-        <f>SUBSTITUTE(B11, "osc 1 ", "")</f>
+        <f t="shared" si="1"/>
         <v>density detune</v>
       </c>
       <c r="K11">
@@ -3481,8 +3623,21 @@
       <c r="Q11" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3505,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="J12" t="str">
-        <f>SUBSTITUTE(B12, "osc 1 ", "")</f>
+        <f t="shared" si="1"/>
         <v>semitones</v>
       </c>
       <c r="K12">
@@ -3523,8 +3678,21 @@
       <c r="Q12" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3547,7 +3715,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="str">
-        <f>SUBSTITUTE(B13, "osc 1 ", "")</f>
+        <f t="shared" si="1"/>
         <v>cents</v>
       </c>
       <c r="K13">
@@ -3568,8 +3736,21 @@
       <c r="Q13" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3592,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="J14" t="str">
-        <f>SUBSTITUTE(B14, "osc 1 ", "")</f>
+        <f t="shared" si="1"/>
         <v>pitchbend</v>
       </c>
       <c r="K14">
@@ -3610,8 +3791,21 @@
       <c r="Q14" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>-1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3634,7 +3828,7 @@
         <v>8</v>
       </c>
       <c r="J15" t="str">
-        <f>SUBSTITUTE(B15, "osc 2 ", "")</f>
+        <f t="shared" ref="J15:J23" si="2">SUBSTITUTE(B15, "osc 2 ", "")</f>
         <v>wave</v>
       </c>
       <c r="K15">
@@ -3655,8 +3849,23 @@
       <c r="Q15" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>T6+2</f>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <f>U6</f>
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3679,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="J16" t="str">
-        <f>SUBSTITUTE(B16, "osc 2 ", "")</f>
+        <f t="shared" si="2"/>
         <v>wave interpolate</v>
       </c>
       <c r="K16">
@@ -3697,8 +3906,23 @@
       <c r="Q16" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:T23" si="3">T7+2</f>
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U23" si="4">U7</f>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3721,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="J17" t="str">
-        <f>SUBSTITUTE(B17, "osc 2 ", "")</f>
+        <f t="shared" si="2"/>
         <v>pulse width index</v>
       </c>
       <c r="K17">
@@ -3742,8 +3966,23 @@
       <c r="Q17" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3766,7 +4005,7 @@
         <v>8</v>
       </c>
       <c r="J18" t="str">
-        <f>SUBSTITUTE(B18, "osc 2 ", "")</f>
+        <f t="shared" si="2"/>
         <v>virtual sync depth</v>
       </c>
       <c r="K18">
@@ -3787,8 +4026,23 @@
       <c r="Q18" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3811,7 +4065,7 @@
         <v>8</v>
       </c>
       <c r="J19" t="str">
-        <f>SUBSTITUTE(B19, "osc 2 ", "")</f>
+        <f t="shared" si="2"/>
         <v>density</v>
       </c>
       <c r="K19">
@@ -3829,8 +4083,23 @@
       <c r="Q19" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3853,7 +4122,7 @@
         <v>8</v>
       </c>
       <c r="J20" t="str">
-        <f>SUBSTITUTE(B20, "osc 2 ", "")</f>
+        <f t="shared" si="2"/>
         <v>density detune</v>
       </c>
       <c r="K20">
@@ -3871,8 +4140,23 @@
       <c r="Q20" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3895,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="J21" t="str">
-        <f>SUBSTITUTE(B21, "osc 2 ", "")</f>
+        <f t="shared" si="2"/>
         <v>semitones</v>
       </c>
       <c r="K21">
@@ -3913,8 +4197,23 @@
       <c r="Q21" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3937,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="J22" t="str">
-        <f>SUBSTITUTE(B22, "osc 2 ", "")</f>
+        <f t="shared" si="2"/>
         <v>cents</v>
       </c>
       <c r="K22">
@@ -3958,8 +4257,23 @@
       <c r="Q22" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -3982,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="J23" t="str">
-        <f>SUBSTITUTE(B23, "osc 2 ", "")</f>
+        <f t="shared" si="2"/>
         <v>pitchbend</v>
       </c>
       <c r="K23">
@@ -4000,8 +4314,23 @@
       <c r="Q23" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -4045,8 +4374,21 @@
       <c r="Q24" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4090,8 +4432,21 @@
       <c r="Q25" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -4114,7 +4469,7 @@
         <v>8</v>
       </c>
       <c r="J26" t="str">
-        <f>B26</f>
+        <f t="shared" ref="J26:J89" si="5">B26</f>
         <v>ring mod level</v>
       </c>
       <c r="K26">
@@ -4135,8 +4490,21 @@
       <c r="Q26" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4159,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="J27" t="str">
-        <f>B27</f>
+        <f t="shared" si="5"/>
         <v>noise level</v>
       </c>
       <c r="K27">
@@ -4180,8 +4548,21 @@
       <c r="Q27" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -4204,7 +4585,7 @@
         <v>12</v>
       </c>
       <c r="J28" t="str">
-        <f>B28</f>
+        <f t="shared" si="5"/>
         <v>pre FX level</v>
       </c>
       <c r="K28">
@@ -4225,8 +4606,21 @@
       <c r="Q28" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4249,7 +4643,7 @@
         <v>12</v>
       </c>
       <c r="J29" t="str">
-        <f>B29</f>
+        <f t="shared" si="5"/>
         <v>post FX level</v>
       </c>
       <c r="K29">
@@ -4270,8 +4664,21 @@
       <c r="Q29" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -4294,7 +4701,7 @@
         <v>8</v>
       </c>
       <c r="J30" t="str">
-        <f>B30</f>
+        <f t="shared" si="5"/>
         <v>routing</v>
       </c>
       <c r="K30">
@@ -4315,8 +4722,21 @@
       <c r="Q30" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -4339,7 +4759,7 @@
         <v>8</v>
       </c>
       <c r="J31" t="str">
-        <f>B31</f>
+        <f t="shared" si="5"/>
         <v>drive</v>
       </c>
       <c r="K31">
@@ -4360,8 +4780,21 @@
       <c r="Q31" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -4384,7 +4817,7 @@
         <v>8</v>
       </c>
       <c r="J32" t="str">
-        <f>B32</f>
+        <f t="shared" si="5"/>
         <v>drive type</v>
       </c>
       <c r="K32">
@@ -4405,8 +4838,21 @@
       <c r="Q32" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -4429,7 +4875,7 @@
         <v>8</v>
       </c>
       <c r="J33" t="str">
-        <f>B33</f>
+        <f t="shared" si="5"/>
         <v>type</v>
       </c>
       <c r="K33">
@@ -4450,8 +4896,21 @@
       <c r="Q33" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4474,7 +4933,7 @@
         <v>8</v>
       </c>
       <c r="J34" t="str">
-        <f>B34</f>
+        <f t="shared" si="5"/>
         <v>frequency</v>
       </c>
       <c r="K34">
@@ -4495,8 +4954,21 @@
       <c r="Q34" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -4519,7 +4991,7 @@
         <v>8</v>
       </c>
       <c r="J35" t="str">
-        <f>B35</f>
+        <f t="shared" si="5"/>
         <v>tracking</v>
       </c>
       <c r="K35">
@@ -4537,8 +5009,21 @@
       <c r="Q35" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4561,7 +5046,7 @@
         <v>8</v>
       </c>
       <c r="J36" t="str">
-        <f>B36</f>
+        <f t="shared" si="5"/>
         <v>resonance</v>
       </c>
       <c r="K36">
@@ -4582,8 +5067,21 @@
       <c r="Q36" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4606,7 +5104,7 @@
         <v>8</v>
       </c>
       <c r="J37" t="str">
-        <f>B37</f>
+        <f t="shared" si="5"/>
         <v>Q normalise</v>
       </c>
       <c r="K37">
@@ -4624,8 +5122,21 @@
       <c r="Q37" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4648,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="J38" t="str">
-        <f>B38</f>
+        <f t="shared" si="5"/>
         <v>env 2 to frequency</v>
       </c>
       <c r="K38">
@@ -4666,8 +5177,21 @@
       <c r="Q38" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -4690,7 +5214,7 @@
         <v>12</v>
       </c>
       <c r="J39" t="str">
-        <f>B39</f>
+        <f t="shared" si="5"/>
         <v>env 1 velocity</v>
       </c>
       <c r="K39">
@@ -4708,8 +5232,21 @@
       <c r="Q39" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4732,7 +5269,7 @@
         <v>8</v>
       </c>
       <c r="J40" t="str">
-        <f>B40</f>
+        <f t="shared" si="5"/>
         <v>env 1 attack</v>
       </c>
       <c r="K40">
@@ -4750,8 +5287,21 @@
       <c r="Q40" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -4774,7 +5324,7 @@
         <v>8</v>
       </c>
       <c r="J41" t="str">
-        <f>B41</f>
+        <f t="shared" si="5"/>
         <v>env 1 decay</v>
       </c>
       <c r="K41">
@@ -4795,8 +5345,21 @@
       <c r="Q41" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -4819,7 +5382,7 @@
         <v>8</v>
       </c>
       <c r="J42" t="str">
-        <f>B42</f>
+        <f t="shared" si="5"/>
         <v>env 1 sustain</v>
       </c>
       <c r="K42">
@@ -4837,8 +5400,21 @@
       <c r="Q42" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>6</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -4861,7 +5437,7 @@
         <v>8</v>
       </c>
       <c r="J43" t="str">
-        <f>B43</f>
+        <f t="shared" si="5"/>
         <v>env 1 release</v>
       </c>
       <c r="K43">
@@ -4879,8 +5455,21 @@
       <c r="Q43" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>7</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -4906,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="J44" t="str">
-        <f>B44</f>
+        <f t="shared" si="5"/>
         <v>env 2 velocity</v>
       </c>
       <c r="K44">
@@ -4924,8 +5513,22 @@
       <c r="Q44" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <f>T39</f>
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4951,7 +5554,7 @@
         <v>8</v>
       </c>
       <c r="J45" t="str">
-        <f>B45</f>
+        <f t="shared" si="5"/>
         <v>env 2 attack</v>
       </c>
       <c r="K45">
@@ -4969,8 +5572,22 @@
       <c r="Q45" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <f t="shared" ref="T45:T48" si="6">T40</f>
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4996,7 +5613,7 @@
         <v>8</v>
       </c>
       <c r="J46" t="str">
-        <f>B46</f>
+        <f t="shared" si="5"/>
         <v>env 2 decay</v>
       </c>
       <c r="K46">
@@ -5017,8 +5634,22 @@
       <c r="Q46" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -5044,7 +5675,7 @@
         <v>8</v>
       </c>
       <c r="J47" t="str">
-        <f>B47</f>
+        <f t="shared" si="5"/>
         <v>env 2 sustain</v>
       </c>
       <c r="K47">
@@ -5062,8 +5693,22 @@
       <c r="Q47" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -5089,7 +5734,7 @@
         <v>8</v>
       </c>
       <c r="J48" t="str">
-        <f>B48</f>
+        <f t="shared" si="5"/>
         <v>env 2 release</v>
       </c>
       <c r="K48">
@@ -5107,8 +5752,22 @@
       <c r="Q48" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -5134,7 +5793,7 @@
         <v>8</v>
       </c>
       <c r="J49" t="str">
-        <f>B49</f>
+        <f t="shared" si="5"/>
         <v>env 3 delay</v>
       </c>
       <c r="K49">
@@ -5152,8 +5811,22 @@
       <c r="Q49" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <f>T44</f>
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -5179,7 +5852,7 @@
         <v>8</v>
       </c>
       <c r="J50" t="str">
-        <f>B50</f>
+        <f t="shared" si="5"/>
         <v>env 3 attack</v>
       </c>
       <c r="K50">
@@ -5197,8 +5870,22 @@
       <c r="Q50" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ref="T50:T53" si="7">T45</f>
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -5224,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="J51" t="str">
-        <f>B51</f>
+        <f t="shared" si="5"/>
         <v>env 3 decay</v>
       </c>
       <c r="K51">
@@ -5242,8 +5929,22 @@
       <c r="Q51" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5269,7 +5970,7 @@
         <v>8</v>
       </c>
       <c r="J52" t="str">
-        <f>B52</f>
+        <f t="shared" si="5"/>
         <v>env 3 sustain</v>
       </c>
       <c r="K52">
@@ -5287,8 +5988,22 @@
       <c r="Q52" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -5314,7 +6029,7 @@
         <v>8</v>
       </c>
       <c r="J53" t="str">
-        <f>B53</f>
+        <f t="shared" si="5"/>
         <v>env 3 release</v>
       </c>
       <c r="K53">
@@ -5332,8 +6047,22 @@
       <c r="Q53" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -5359,7 +6088,7 @@
         <v>8</v>
       </c>
       <c r="J54" t="str">
-        <f>B54</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 waveform</v>
       </c>
       <c r="K54">
@@ -5380,8 +6109,21 @@
       <c r="Q54" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -5407,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="J55" t="str">
-        <f>B55</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 phase offset</v>
       </c>
       <c r="K55">
@@ -5428,8 +6170,21 @@
       <c r="Q55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -5455,7 +6210,7 @@
         <v>8</v>
       </c>
       <c r="J56" t="str">
-        <f>B56</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 slew rate</v>
       </c>
       <c r="K56">
@@ -5473,8 +6228,21 @@
       <c r="Q56" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -5500,7 +6268,7 @@
         <v>8</v>
       </c>
       <c r="J57" t="str">
-        <f>B57</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 delay</v>
       </c>
       <c r="K57">
@@ -5518,8 +6286,21 @@
       <c r="Q57" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>4</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -5545,7 +6326,7 @@
         <v>8</v>
       </c>
       <c r="J58" t="str">
-        <f>B58</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 delay sync</v>
       </c>
       <c r="K58">
@@ -5563,8 +6344,21 @@
       <c r="Q58" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>4</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -5590,7 +6384,7 @@
         <v>8</v>
       </c>
       <c r="J59" t="str">
-        <f>B59</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 rate</v>
       </c>
       <c r="K59">
@@ -5611,8 +6405,21 @@
       <c r="Q59" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5638,7 +6445,7 @@
         <v>8</v>
       </c>
       <c r="J60" t="str">
-        <f>B60</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 rate sync</v>
       </c>
       <c r="K60">
@@ -5656,8 +6463,21 @@
       <c r="Q60" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
@@ -5683,7 +6503,7 @@
         <v>8</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f>B61</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 one shot</v>
       </c>
       <c r="K61" s="2">
@@ -5705,8 +6525,21 @@
       <c r="Q61" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61" s="2">
+        <v>2</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
@@ -5732,7 +6565,7 @@
         <v>8</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f>B62</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 key sync</v>
       </c>
       <c r="K62" s="2">
@@ -5754,8 +6587,21 @@
       <c r="Q62" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62" s="2">
+        <v>3</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
@@ -5781,7 +6627,7 @@
         <v>8</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f>B63</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 common sync</v>
       </c>
       <c r="K63" s="2">
@@ -5803,8 +6649,21 @@
       <c r="Q63" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2">
+        <v>4</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -5830,7 +6689,7 @@
         <v>8</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f>B64</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 delay trigger</v>
       </c>
       <c r="K64" s="2">
@@ -5852,8 +6711,21 @@
       <c r="Q64" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64" s="2">
+        <v>2</v>
+      </c>
+      <c r="U64" s="2">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>70</v>
       </c>
@@ -5879,7 +6751,7 @@
         <v>8</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f>B65</f>
+        <f t="shared" si="5"/>
         <v>lfo 1 fade mode</v>
       </c>
       <c r="K65" s="2">
@@ -5901,8 +6773,21 @@
       <c r="Q65" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65" s="2">
+        <v>3</v>
+      </c>
+      <c r="U65" s="2">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -5928,7 +6813,7 @@
         <v>8</v>
       </c>
       <c r="J66" t="str">
-        <f>B66</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 waveform</v>
       </c>
       <c r="K66">
@@ -5949,8 +6834,23 @@
       <c r="Q66" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <f>T54+3</f>
+        <v>5</v>
+      </c>
+      <c r="U66">
+        <f>U54</f>
+        <v>3</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -5976,7 +6876,7 @@
         <v>8</v>
       </c>
       <c r="J67" t="str">
-        <f>B67</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 phase offset</v>
       </c>
       <c r="K67">
@@ -5997,8 +6897,23 @@
       <c r="Q67" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T77" si="8">T55+3</f>
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U77" si="9">U55</f>
+        <v>2</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V130" si="10">T67+U67*8</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -6024,7 +6939,7 @@
         <v>8</v>
       </c>
       <c r="J68" t="str">
-        <f>B68</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 slew rate</v>
       </c>
       <c r="K68">
@@ -6042,8 +6957,23 @@
       <c r="Q68" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -6069,7 +6999,7 @@
         <v>8</v>
       </c>
       <c r="J69" t="str">
-        <f>B69</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 delay</v>
       </c>
       <c r="K69">
@@ -6087,8 +7017,23 @@
       <c r="Q69" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -6114,7 +7059,7 @@
         <v>8</v>
       </c>
       <c r="J70" t="str">
-        <f>B70</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 delay sync</v>
       </c>
       <c r="K70">
@@ -6132,8 +7077,23 @@
       <c r="Q70" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -6159,7 +7119,7 @@
         <v>8</v>
       </c>
       <c r="J71" t="str">
-        <f>B71</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 rate</v>
       </c>
       <c r="K71">
@@ -6180,8 +7140,23 @@
       <c r="Q71" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -6207,7 +7182,7 @@
         <v>8</v>
       </c>
       <c r="J72" t="str">
-        <f>B72</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 rate sync</v>
       </c>
       <c r="K72">
@@ -6225,8 +7200,23 @@
       <c r="Q72" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
@@ -6252,7 +7242,7 @@
         <v>8</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f>B73</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 one shot</v>
       </c>
       <c r="K73" s="2">
@@ -6274,8 +7264,23 @@
       <c r="Q73" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
@@ -6301,7 +7306,7 @@
         <v>8</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f>B74</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 key sync</v>
       </c>
       <c r="K74" s="2">
@@ -6323,8 +7328,23 @@
       <c r="Q74" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -6350,7 +7370,7 @@
         <v>8</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f>B75</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 common sync</v>
       </c>
       <c r="K75" s="2">
@@ -6372,8 +7392,23 @@
       <c r="Q75" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
@@ -6399,7 +7434,7 @@
         <v>8</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f>B76</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 delay trigger</v>
       </c>
       <c r="K76" s="2">
@@ -6421,8 +7456,23 @@
       <c r="Q76" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
@@ -6448,7 +7498,7 @@
         <v>8</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f>B77</f>
+        <f t="shared" si="5"/>
         <v>lfo 2 fade mode</v>
       </c>
       <c r="K77" s="2">
@@ -6470,8 +7520,23 @@
       <c r="Q77" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -6494,7 +7559,7 @@
         <v>8</v>
       </c>
       <c r="J78" t="str">
-        <f>B78</f>
+        <f t="shared" si="5"/>
         <v>distortion level</v>
       </c>
       <c r="K78">
@@ -6512,8 +7577,21 @@
       <c r="Q78" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>7</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -6536,7 +7614,7 @@
         <v>8</v>
       </c>
       <c r="J79" t="str">
-        <f>B79</f>
+        <f t="shared" si="5"/>
         <v>chorus level</v>
       </c>
       <c r="K79">
@@ -6554,8 +7632,21 @@
       <c r="Q79" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>6</v>
+      </c>
+      <c r="U79">
+        <v>3</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -6581,7 +7672,7 @@
         <v>8</v>
       </c>
       <c r="J80" t="str">
-        <f>B80</f>
+        <f t="shared" si="5"/>
         <v>EQ bass frequency</v>
       </c>
       <c r="K80">
@@ -6599,8 +7690,21 @@
       <c r="Q80" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <v>3</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -6626,7 +7730,7 @@
         <v>12</v>
       </c>
       <c r="J81" t="str">
-        <f>B81</f>
+        <f t="shared" si="5"/>
         <v>EQ bass level</v>
       </c>
       <c r="K81">
@@ -6644,8 +7748,21 @@
       <c r="Q81" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <v>3</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -6671,7 +7788,7 @@
         <v>8</v>
       </c>
       <c r="J82" t="str">
-        <f>B82</f>
+        <f t="shared" si="5"/>
         <v>EQ mid frequency</v>
       </c>
       <c r="K82">
@@ -6689,8 +7806,21 @@
       <c r="Q82" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -6716,7 +7846,7 @@
         <v>12</v>
       </c>
       <c r="J83" t="str">
-        <f>B83</f>
+        <f t="shared" si="5"/>
         <v>EQ mid level</v>
       </c>
       <c r="K83">
@@ -6734,8 +7864,21 @@
       <c r="Q83" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -6761,7 +7904,7 @@
         <v>8</v>
       </c>
       <c r="J84" t="str">
-        <f>B84</f>
+        <f t="shared" si="5"/>
         <v>EQ treble frequency</v>
       </c>
       <c r="K84">
@@ -6779,8 +7922,21 @@
       <c r="Q84" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -6806,7 +7962,7 @@
         <v>12</v>
       </c>
       <c r="J85" t="str">
-        <f>B85</f>
+        <f t="shared" si="5"/>
         <v>EQ treble level</v>
       </c>
       <c r="K85">
@@ -6824,8 +7980,21 @@
       <c r="Q85" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -6851,7 +8020,7 @@
         <v>8</v>
       </c>
       <c r="J86" t="str">
-        <f>B86</f>
+        <f t="shared" si="5"/>
         <v>distortion type</v>
       </c>
       <c r="K86">
@@ -6872,8 +8041,21 @@
       <c r="Q86" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>7</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -6899,7 +8081,7 @@
         <v>8</v>
       </c>
       <c r="J87" t="str">
-        <f>B87</f>
+        <f t="shared" si="5"/>
         <v>distortion compensation</v>
       </c>
       <c r="K87">
@@ -6917,8 +8099,21 @@
       <c r="Q87" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>7</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -6944,7 +8139,7 @@
         <v>8</v>
       </c>
       <c r="J88" t="str">
-        <f>B88</f>
+        <f t="shared" si="5"/>
         <v>chorus type</v>
       </c>
       <c r="K88">
@@ -6965,8 +8160,21 @@
       <c r="Q88" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>6</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -6992,7 +8200,7 @@
         <v>8</v>
       </c>
       <c r="J89" t="str">
-        <f>B89</f>
+        <f t="shared" si="5"/>
         <v>chorus rate</v>
       </c>
       <c r="K89">
@@ -7010,8 +8218,21 @@
       <c r="Q89" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>6</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -7037,7 +8258,7 @@
         <v>8</v>
       </c>
       <c r="J90" t="str">
-        <f>B90</f>
+        <f t="shared" ref="J90:J153" si="11">B90</f>
         <v>chorus rate sync</v>
       </c>
       <c r="K90">
@@ -7055,8 +8276,21 @@
       <c r="Q90" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>5</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -7082,7 +8316,7 @@
         <v>12</v>
       </c>
       <c r="J91" t="str">
-        <f>B91</f>
+        <f t="shared" si="11"/>
         <v>chorus feedback</v>
       </c>
       <c r="K91">
@@ -7100,8 +8334,21 @@
       <c r="Q91" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>5</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -7127,7 +8374,7 @@
         <v>8</v>
       </c>
       <c r="J92" t="str">
-        <f>B92</f>
+        <f t="shared" si="11"/>
         <v>chorus mod depth</v>
       </c>
       <c r="K92">
@@ -7145,8 +8392,21 @@
       <c r="Q92" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>4</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -7172,7 +8432,7 @@
         <v>8</v>
       </c>
       <c r="J93" t="str">
-        <f>B93</f>
+        <f t="shared" si="11"/>
         <v>chorus delay</v>
       </c>
       <c r="K93">
@@ -7190,8 +8450,21 @@
       <c r="Q93" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>4</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -7217,7 +8490,7 @@
         <v>8</v>
       </c>
       <c r="J94" t="str">
-        <f>B94</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 1 source 1</v>
       </c>
       <c r="K94">
@@ -7235,8 +8508,12 @@
       <c r="Q94" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -7262,7 +8539,7 @@
         <v>8</v>
       </c>
       <c r="J95" t="str">
-        <f>B95</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 1 source 2</v>
       </c>
       <c r="K95">
@@ -7280,8 +8557,12 @@
       <c r="Q95" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -7307,7 +8588,7 @@
         <v>12</v>
       </c>
       <c r="J96" t="str">
-        <f>B96</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 1 depth</v>
       </c>
       <c r="K96">
@@ -7322,8 +8603,12 @@
       <c r="Q96" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -7349,7 +8634,7 @@
         <v>8</v>
       </c>
       <c r="J97" t="str">
-        <f>B97</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 1 destination</v>
       </c>
       <c r="K97">
@@ -7367,8 +8652,12 @@
       <c r="Q97" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -7394,7 +8683,7 @@
         <v>8</v>
       </c>
       <c r="J98" t="str">
-        <f>B98</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 2 source 1</v>
       </c>
       <c r="K98">
@@ -7412,8 +8701,12 @@
       <c r="Q98" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -7439,7 +8732,7 @@
         <v>8</v>
       </c>
       <c r="J99" t="str">
-        <f>B99</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 2 source 2</v>
       </c>
       <c r="K99">
@@ -7457,8 +8750,12 @@
       <c r="Q99" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -7484,7 +8781,7 @@
         <v>12</v>
       </c>
       <c r="J100" t="str">
-        <f>B100</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 2 depth</v>
       </c>
       <c r="K100">
@@ -7499,8 +8796,12 @@
       <c r="Q100" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -7526,7 +8827,7 @@
         <v>8</v>
       </c>
       <c r="J101" t="str">
-        <f>B101</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 2 destination</v>
       </c>
       <c r="K101">
@@ -7544,8 +8845,12 @@
       <c r="Q101" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -7571,7 +8876,7 @@
         <v>8</v>
       </c>
       <c r="J102" t="str">
-        <f>B102</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 3 source 1</v>
       </c>
       <c r="K102">
@@ -7589,8 +8894,12 @@
       <c r="Q102" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V102">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -7616,7 +8925,7 @@
         <v>8</v>
       </c>
       <c r="J103" t="str">
-        <f>B103</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 3 source 2</v>
       </c>
       <c r="K103">
@@ -7634,8 +8943,12 @@
       <c r="Q103" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -7661,7 +8974,7 @@
         <v>12</v>
       </c>
       <c r="J104" t="str">
-        <f>B104</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 3 depth</v>
       </c>
       <c r="K104">
@@ -7676,8 +8989,12 @@
       <c r="Q104" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V104">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -7703,7 +9020,7 @@
         <v>8</v>
       </c>
       <c r="J105" t="str">
-        <f>B105</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 3 destination</v>
       </c>
       <c r="K105">
@@ -7721,8 +9038,12 @@
       <c r="Q105" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -7748,7 +9069,7 @@
         <v>8</v>
       </c>
       <c r="J106" t="str">
-        <f>B106</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 4 source 1</v>
       </c>
       <c r="K106">
@@ -7766,8 +9087,12 @@
       <c r="Q106" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V106">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -7793,7 +9118,7 @@
         <v>8</v>
       </c>
       <c r="J107" t="str">
-        <f>B107</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 4 source 2</v>
       </c>
       <c r="K107">
@@ -7811,8 +9136,12 @@
       <c r="Q107" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -7838,7 +9167,7 @@
         <v>12</v>
       </c>
       <c r="J108" t="str">
-        <f>B108</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 4 depth</v>
       </c>
       <c r="K108">
@@ -7853,8 +9182,12 @@
       <c r="Q108" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V108">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -7880,7 +9213,7 @@
         <v>8</v>
       </c>
       <c r="J109" t="str">
-        <f>B109</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 4 destination</v>
       </c>
       <c r="K109">
@@ -7898,8 +9231,12 @@
       <c r="Q109" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V109">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -7925,7 +9262,7 @@
         <v>8</v>
       </c>
       <c r="J110" t="str">
-        <f>B110</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 5 source 1</v>
       </c>
       <c r="K110">
@@ -7943,8 +9280,12 @@
       <c r="Q110" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V110">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -7970,7 +9311,7 @@
         <v>8</v>
       </c>
       <c r="J111" t="str">
-        <f>B111</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 5 source 2</v>
       </c>
       <c r="K111">
@@ -7988,8 +9329,12 @@
       <c r="Q111" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -8015,7 +9360,7 @@
         <v>12</v>
       </c>
       <c r="J112" t="str">
-        <f>B112</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 5 depth</v>
       </c>
       <c r="K112">
@@ -8030,8 +9375,12 @@
       <c r="Q112" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V112">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -8057,7 +9406,7 @@
         <v>8</v>
       </c>
       <c r="J113" t="str">
-        <f>B113</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 5 destination</v>
       </c>
       <c r="K113">
@@ -8075,8 +9424,12 @@
       <c r="Q113" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V113">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -8102,7 +9455,7 @@
         <v>8</v>
       </c>
       <c r="J114" t="str">
-        <f>B114</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 6 source 1</v>
       </c>
       <c r="K114">
@@ -8120,8 +9473,12 @@
       <c r="Q114" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -8147,7 +9504,7 @@
         <v>8</v>
       </c>
       <c r="J115" t="str">
-        <f>B115</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 6 source 2</v>
       </c>
       <c r="K115">
@@ -8165,8 +9522,12 @@
       <c r="Q115" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V115">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -8192,7 +9553,7 @@
         <v>12</v>
       </c>
       <c r="J116" t="str">
-        <f>B116</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 6 depth</v>
       </c>
       <c r="K116">
@@ -8207,8 +9568,12 @@
       <c r="Q116" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -8234,7 +9599,7 @@
         <v>8</v>
       </c>
       <c r="J117" t="str">
-        <f>B117</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 6 destination</v>
       </c>
       <c r="K117">
@@ -8252,8 +9617,12 @@
       <c r="Q117" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V117">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -8279,7 +9648,7 @@
         <v>8</v>
       </c>
       <c r="J118" t="str">
-        <f>B118</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 7 source 1</v>
       </c>
       <c r="K118">
@@ -8297,8 +9666,12 @@
       <c r="Q118" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -8324,7 +9697,7 @@
         <v>8</v>
       </c>
       <c r="J119" t="str">
-        <f>B119</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 7 source 2</v>
       </c>
       <c r="K119">
@@ -8342,8 +9715,12 @@
       <c r="Q119" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V119">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -8369,7 +9746,7 @@
         <v>12</v>
       </c>
       <c r="J120" t="str">
-        <f>B120</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 7 depth</v>
       </c>
       <c r="K120">
@@ -8384,8 +9761,12 @@
       <c r="Q120" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -8411,7 +9792,7 @@
         <v>8</v>
       </c>
       <c r="J121" t="str">
-        <f>B121</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 7 destination</v>
       </c>
       <c r="K121">
@@ -8429,8 +9810,12 @@
       <c r="Q121" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V121">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -8456,7 +9841,7 @@
         <v>8</v>
       </c>
       <c r="J122" t="str">
-        <f>B122</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 8 source 1</v>
       </c>
       <c r="K122">
@@ -8474,8 +9859,12 @@
       <c r="Q122" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V122">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -8501,7 +9890,7 @@
         <v>8</v>
       </c>
       <c r="J123" t="str">
-        <f>B123</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 8 source 2</v>
       </c>
       <c r="K123">
@@ -8519,8 +9908,12 @@
       <c r="Q123" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>117</v>
       </c>
@@ -8546,7 +9939,7 @@
         <v>12</v>
       </c>
       <c r="J124" t="str">
-        <f>B124</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 8 depth</v>
       </c>
       <c r="K124">
@@ -8561,8 +9954,12 @@
       <c r="Q124" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V124">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>117</v>
       </c>
@@ -8588,7 +9985,7 @@
         <v>8</v>
       </c>
       <c r="J125" t="str">
-        <f>B125</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 8 destination</v>
       </c>
       <c r="K125">
@@ -8606,8 +10003,12 @@
       <c r="Q125" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>117</v>
       </c>
@@ -8633,7 +10034,7 @@
         <v>8</v>
       </c>
       <c r="J126" t="str">
-        <f>B126</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 9 source 1</v>
       </c>
       <c r="K126">
@@ -8651,8 +10052,12 @@
       <c r="Q126" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V126">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -8678,7 +10083,7 @@
         <v>8</v>
       </c>
       <c r="J127" t="str">
-        <f>B127</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 9 source 2</v>
       </c>
       <c r="K127">
@@ -8696,8 +10101,12 @@
       <c r="Q127" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V127">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>117</v>
       </c>
@@ -8723,7 +10132,7 @@
         <v>12</v>
       </c>
       <c r="J128" t="str">
-        <f>B128</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 9 depth</v>
       </c>
       <c r="K128">
@@ -8738,8 +10147,12 @@
       <c r="Q128" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V128">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>117</v>
       </c>
@@ -8765,7 +10178,7 @@
         <v>8</v>
       </c>
       <c r="J129" t="str">
-        <f>B129</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 9 destination</v>
       </c>
       <c r="K129">
@@ -8783,8 +10196,12 @@
       <c r="Q129" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>117</v>
       </c>
@@ -8810,7 +10227,7 @@
         <v>8</v>
       </c>
       <c r="J130" t="str">
-        <f>B130</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 10 source 1</v>
       </c>
       <c r="K130">
@@ -8828,8 +10245,12 @@
       <c r="Q130" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V130">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -8855,7 +10276,7 @@
         <v>8</v>
       </c>
       <c r="J131" t="str">
-        <f>B131</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 10 source 2</v>
       </c>
       <c r="K131">
@@ -8873,8 +10294,12 @@
       <c r="Q131" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V131">
+        <f t="shared" ref="V131:V194" si="12">T131+U131*8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>117</v>
       </c>
@@ -8900,7 +10325,7 @@
         <v>12</v>
       </c>
       <c r="J132" t="str">
-        <f>B132</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 10 depth</v>
       </c>
       <c r="K132">
@@ -8915,8 +10340,12 @@
       <c r="Q132" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>117</v>
       </c>
@@ -8942,7 +10371,7 @@
         <v>8</v>
       </c>
       <c r="J133" t="str">
-        <f>B133</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 10 destination</v>
       </c>
       <c r="K133">
@@ -8960,8 +10389,12 @@
       <c r="Q133" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>117</v>
       </c>
@@ -8987,7 +10420,7 @@
         <v>8</v>
       </c>
       <c r="J134" t="str">
-        <f>B134</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 11 source 1</v>
       </c>
       <c r="K134">
@@ -9005,8 +10438,12 @@
       <c r="Q134" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>117</v>
       </c>
@@ -9032,7 +10469,7 @@
         <v>8</v>
       </c>
       <c r="J135" t="str">
-        <f>B135</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 11 source 2</v>
       </c>
       <c r="K135">
@@ -9050,8 +10487,12 @@
       <c r="Q135" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>117</v>
       </c>
@@ -9077,7 +10518,7 @@
         <v>12</v>
       </c>
       <c r="J136" t="str">
-        <f>B136</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 11 depth</v>
       </c>
       <c r="K136">
@@ -9092,8 +10533,12 @@
       <c r="Q136" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V136">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>117</v>
       </c>
@@ -9119,7 +10564,7 @@
         <v>8</v>
       </c>
       <c r="J137" t="str">
-        <f>B137</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 11 destination</v>
       </c>
       <c r="K137">
@@ -9137,8 +10582,12 @@
       <c r="Q137" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V137">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>117</v>
       </c>
@@ -9164,7 +10613,7 @@
         <v>8</v>
       </c>
       <c r="J138" t="str">
-        <f>B138</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 12 source 1</v>
       </c>
       <c r="K138">
@@ -9182,8 +10631,12 @@
       <c r="Q138" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V138">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>117</v>
       </c>
@@ -9209,7 +10662,7 @@
         <v>8</v>
       </c>
       <c r="J139" t="str">
-        <f>B139</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 12 source 2</v>
       </c>
       <c r="K139">
@@ -9227,8 +10680,12 @@
       <c r="Q139" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V139">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>117</v>
       </c>
@@ -9254,7 +10711,7 @@
         <v>12</v>
       </c>
       <c r="J140" t="str">
-        <f>B140</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 12 depth</v>
       </c>
       <c r="K140">
@@ -9269,8 +10726,12 @@
       <c r="Q140" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V140">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>117</v>
       </c>
@@ -9296,7 +10757,7 @@
         <v>8</v>
       </c>
       <c r="J141" t="str">
-        <f>B141</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 12 destination</v>
       </c>
       <c r="K141">
@@ -9314,8 +10775,12 @@
       <c r="Q141" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V141">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -9341,7 +10806,7 @@
         <v>8</v>
       </c>
       <c r="J142" t="str">
-        <f>B142</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 13 source 1</v>
       </c>
       <c r="K142">
@@ -9359,8 +10824,12 @@
       <c r="Q142" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V142">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>117</v>
       </c>
@@ -9386,7 +10855,7 @@
         <v>8</v>
       </c>
       <c r="J143" t="str">
-        <f>B143</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 13 source 2</v>
       </c>
       <c r="K143">
@@ -9404,8 +10873,12 @@
       <c r="Q143" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V143">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>117</v>
       </c>
@@ -9431,7 +10904,7 @@
         <v>12</v>
       </c>
       <c r="J144" t="str">
-        <f>B144</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 13 depth</v>
       </c>
       <c r="K144">
@@ -9446,8 +10919,12 @@
       <c r="Q144" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V144">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>117</v>
       </c>
@@ -9473,7 +10950,7 @@
         <v>8</v>
       </c>
       <c r="J145" t="str">
-        <f>B145</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 13 destination</v>
       </c>
       <c r="K145">
@@ -9491,8 +10968,12 @@
       <c r="Q145" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V145">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>117</v>
       </c>
@@ -9518,7 +10999,7 @@
         <v>8</v>
       </c>
       <c r="J146" t="str">
-        <f>B146</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 14 source 1</v>
       </c>
       <c r="K146">
@@ -9536,8 +11017,12 @@
       <c r="Q146" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V146">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>117</v>
       </c>
@@ -9563,7 +11048,7 @@
         <v>8</v>
       </c>
       <c r="J147" t="str">
-        <f>B147</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 14 source 2</v>
       </c>
       <c r="K147">
@@ -9581,8 +11066,12 @@
       <c r="Q147" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V147">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>117</v>
       </c>
@@ -9608,7 +11097,7 @@
         <v>12</v>
       </c>
       <c r="J148" t="str">
-        <f>B148</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 14 depth</v>
       </c>
       <c r="K148">
@@ -9623,8 +11112,12 @@
       <c r="Q148" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V148">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>117</v>
       </c>
@@ -9650,7 +11143,7 @@
         <v>8</v>
       </c>
       <c r="J149" t="str">
-        <f>B149</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 14 destination</v>
       </c>
       <c r="K149">
@@ -9668,8 +11161,12 @@
       <c r="Q149" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V149">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>117</v>
       </c>
@@ -9695,7 +11192,7 @@
         <v>8</v>
       </c>
       <c r="J150" t="str">
-        <f>B150</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 15 source 1</v>
       </c>
       <c r="K150">
@@ -9713,8 +11210,12 @@
       <c r="Q150" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V150">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>117</v>
       </c>
@@ -9740,7 +11241,7 @@
         <v>8</v>
       </c>
       <c r="J151" t="str">
-        <f>B151</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 15 source 2</v>
       </c>
       <c r="K151">
@@ -9758,8 +11259,12 @@
       <c r="Q151" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V151">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>117</v>
       </c>
@@ -9785,7 +11290,7 @@
         <v>12</v>
       </c>
       <c r="J152" t="str">
-        <f>B152</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 15 depth</v>
       </c>
       <c r="K152">
@@ -9800,8 +11305,12 @@
       <c r="Q152" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>117</v>
       </c>
@@ -9827,7 +11336,7 @@
         <v>8</v>
       </c>
       <c r="J153" t="str">
-        <f>B153</f>
+        <f t="shared" si="11"/>
         <v>mod matrix 15 destination</v>
       </c>
       <c r="K153">
@@ -9845,8 +11354,12 @@
       <c r="Q153" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V153">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>117</v>
       </c>
@@ -9872,7 +11385,7 @@
         <v>8</v>
       </c>
       <c r="J154" t="str">
-        <f>B154</f>
+        <f t="shared" ref="J154:J217" si="13">B154</f>
         <v>mod matrix 16 source 1</v>
       </c>
       <c r="K154">
@@ -9890,8 +11403,12 @@
       <c r="Q154" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V154">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>117</v>
       </c>
@@ -9917,7 +11434,7 @@
         <v>8</v>
       </c>
       <c r="J155" t="str">
-        <f>B155</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 16 source 2</v>
       </c>
       <c r="K155">
@@ -9935,8 +11452,12 @@
       <c r="Q155" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>117</v>
       </c>
@@ -9962,7 +11483,7 @@
         <v>12</v>
       </c>
       <c r="J156" t="str">
-        <f>B156</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 16 depth</v>
       </c>
       <c r="K156">
@@ -9977,8 +11498,12 @@
       <c r="Q156" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V156">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>117</v>
       </c>
@@ -10004,7 +11529,7 @@
         <v>8</v>
       </c>
       <c r="J157" t="str">
-        <f>B157</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 16 destination</v>
       </c>
       <c r="K157">
@@ -10022,8 +11547,12 @@
       <c r="Q157" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V157">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>117</v>
       </c>
@@ -10049,7 +11578,7 @@
         <v>8</v>
       </c>
       <c r="J158" t="str">
-        <f>B158</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 17 source 1</v>
       </c>
       <c r="K158">
@@ -10067,8 +11596,12 @@
       <c r="Q158" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V158">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>117</v>
       </c>
@@ -10094,7 +11627,7 @@
         <v>8</v>
       </c>
       <c r="J159" t="str">
-        <f>B159</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 17 source 2</v>
       </c>
       <c r="K159">
@@ -10112,8 +11645,12 @@
       <c r="Q159" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V159">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -10139,7 +11676,7 @@
         <v>12</v>
       </c>
       <c r="J160" t="str">
-        <f>B160</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 17 depth</v>
       </c>
       <c r="K160">
@@ -10154,8 +11691,12 @@
       <c r="Q160" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V160">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>117</v>
       </c>
@@ -10181,7 +11722,7 @@
         <v>8</v>
       </c>
       <c r="J161" t="str">
-        <f>B161</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 17 destination</v>
       </c>
       <c r="K161">
@@ -10199,8 +11740,12 @@
       <c r="Q161" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V161">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -10226,7 +11771,7 @@
         <v>8</v>
       </c>
       <c r="J162" t="str">
-        <f>B162</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 18 source 1</v>
       </c>
       <c r="K162">
@@ -10244,8 +11789,12 @@
       <c r="Q162" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V162">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>117</v>
       </c>
@@ -10271,7 +11820,7 @@
         <v>8</v>
       </c>
       <c r="J163" t="str">
-        <f>B163</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 18 source 2</v>
       </c>
       <c r="K163">
@@ -10289,8 +11838,12 @@
       <c r="Q163" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V163">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>117</v>
       </c>
@@ -10316,7 +11869,7 @@
         <v>12</v>
       </c>
       <c r="J164" t="str">
-        <f>B164</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 18 depth</v>
       </c>
       <c r="K164">
@@ -10331,8 +11884,12 @@
       <c r="Q164" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V164">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>117</v>
       </c>
@@ -10358,7 +11915,7 @@
         <v>8</v>
       </c>
       <c r="J165" t="str">
-        <f>B165</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 18 destination</v>
       </c>
       <c r="K165">
@@ -10376,8 +11933,12 @@
       <c r="Q165" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V165">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>117</v>
       </c>
@@ -10403,7 +11964,7 @@
         <v>8</v>
       </c>
       <c r="J166" t="str">
-        <f>B166</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 19 source 1</v>
       </c>
       <c r="K166">
@@ -10421,8 +11982,12 @@
       <c r="Q166" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V166">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>117</v>
       </c>
@@ -10448,7 +12013,7 @@
         <v>8</v>
       </c>
       <c r="J167" t="str">
-        <f>B167</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 19 source 2</v>
       </c>
       <c r="K167">
@@ -10466,8 +12031,12 @@
       <c r="Q167" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V167">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>117</v>
       </c>
@@ -10493,7 +12062,7 @@
         <v>12</v>
       </c>
       <c r="J168" t="str">
-        <f>B168</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 19 depth</v>
       </c>
       <c r="K168">
@@ -10508,8 +12077,12 @@
       <c r="Q168" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V168">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>117</v>
       </c>
@@ -10535,7 +12108,7 @@
         <v>8</v>
       </c>
       <c r="J169" t="str">
-        <f>B169</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 19 destination</v>
       </c>
       <c r="K169">
@@ -10553,8 +12126,12 @@
       <c r="Q169" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>117</v>
       </c>
@@ -10580,7 +12157,7 @@
         <v>8</v>
       </c>
       <c r="J170" t="str">
-        <f>B170</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 20 source 1</v>
       </c>
       <c r="K170">
@@ -10598,8 +12175,12 @@
       <c r="Q170" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V170">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>117</v>
       </c>
@@ -10625,7 +12206,7 @@
         <v>8</v>
       </c>
       <c r="J171" t="str">
-        <f>B171</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 20 source 2</v>
       </c>
       <c r="K171">
@@ -10643,8 +12224,12 @@
       <c r="Q171" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V171">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -10670,7 +12255,7 @@
         <v>12</v>
       </c>
       <c r="J172" t="str">
-        <f>B172</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 20 depth</v>
       </c>
       <c r="K172">
@@ -10685,8 +12270,12 @@
       <c r="Q172" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>117</v>
       </c>
@@ -10712,7 +12301,7 @@
         <v>8</v>
       </c>
       <c r="J173" t="str">
-        <f>B173</f>
+        <f t="shared" si="13"/>
         <v>mod matrix 20 destination</v>
       </c>
       <c r="K173">
@@ -10730,8 +12319,12 @@
       <c r="Q173" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -10754,7 +12347,7 @@
         <v>8</v>
       </c>
       <c r="J174" t="str">
-        <f>B174</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 position</v>
       </c>
       <c r="K174">
@@ -10769,8 +12362,12 @@
       <c r="Q174" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V174">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -10796,7 +12393,7 @@
         <v>8</v>
       </c>
       <c r="J175" t="str">
-        <f>B175</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 destination A</v>
       </c>
       <c r="K175">
@@ -10811,8 +12408,12 @@
       <c r="Q175" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V175">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>200</v>
       </c>
@@ -10838,7 +12439,7 @@
         <v>8</v>
       </c>
       <c r="J176" t="str">
-        <f>B176</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 start position A</v>
       </c>
       <c r="K176">
@@ -10853,8 +12454,12 @@
       <c r="Q176" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V176">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>200</v>
       </c>
@@ -10880,7 +12485,7 @@
         <v>8</v>
       </c>
       <c r="J177" t="str">
-        <f>B177</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 end position A</v>
       </c>
       <c r="K177">
@@ -10895,8 +12500,12 @@
       <c r="Q177" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V177">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>200</v>
       </c>
@@ -10922,7 +12531,7 @@
         <v>12</v>
       </c>
       <c r="J178" t="str">
-        <f>B178</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 depth A</v>
       </c>
       <c r="K178">
@@ -10937,8 +12546,12 @@
       <c r="Q178" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V178">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -10964,7 +12577,7 @@
         <v>8</v>
       </c>
       <c r="J179" t="str">
-        <f>B179</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 destination B</v>
       </c>
       <c r="K179">
@@ -10979,8 +12592,12 @@
       <c r="Q179" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V179">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -11006,7 +12623,7 @@
         <v>8</v>
       </c>
       <c r="J180" t="str">
-        <f>B180</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 start position B</v>
       </c>
       <c r="K180">
@@ -11021,8 +12638,12 @@
       <c r="Q180" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V180">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>200</v>
       </c>
@@ -11048,7 +12669,7 @@
         <v>8</v>
       </c>
       <c r="J181" t="str">
-        <f>B181</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 end position B</v>
       </c>
       <c r="K181">
@@ -11063,8 +12684,12 @@
       <c r="Q181" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V181">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -11090,7 +12715,7 @@
         <v>12</v>
       </c>
       <c r="J182" t="str">
-        <f>B182</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 depth B</v>
       </c>
       <c r="K182">
@@ -11105,8 +12730,12 @@
       <c r="Q182" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V182">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -11132,7 +12761,7 @@
         <v>8</v>
       </c>
       <c r="J183" t="str">
-        <f>B183</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 destination C</v>
       </c>
       <c r="K183">
@@ -11147,8 +12776,12 @@
       <c r="Q183" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V183">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -11174,7 +12807,7 @@
         <v>8</v>
       </c>
       <c r="J184" t="str">
-        <f>B184</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 start position C</v>
       </c>
       <c r="K184">
@@ -11189,8 +12822,12 @@
       <c r="Q184" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V184">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>200</v>
       </c>
@@ -11216,7 +12853,7 @@
         <v>8</v>
       </c>
       <c r="J185" t="str">
-        <f>B185</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 end position C</v>
       </c>
       <c r="K185">
@@ -11231,8 +12868,12 @@
       <c r="Q185" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V185">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -11258,7 +12899,7 @@
         <v>12</v>
       </c>
       <c r="J186" t="str">
-        <f>B186</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 depth C</v>
       </c>
       <c r="K186">
@@ -11273,8 +12914,12 @@
       <c r="Q186" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V186">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -11300,7 +12945,7 @@
         <v>8</v>
       </c>
       <c r="J187" t="str">
-        <f>B187</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 destination D</v>
       </c>
       <c r="K187">
@@ -11315,8 +12960,12 @@
       <c r="Q187" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V187">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -11342,7 +12991,7 @@
         <v>8</v>
       </c>
       <c r="J188" t="str">
-        <f>B188</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 start position D</v>
       </c>
       <c r="K188">
@@ -11357,8 +13006,12 @@
       <c r="Q188" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V188">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -11384,7 +13037,7 @@
         <v>8</v>
       </c>
       <c r="J189" t="str">
-        <f>B189</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 end position D</v>
       </c>
       <c r="K189">
@@ -11399,8 +13052,12 @@
       <c r="Q189" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V189">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>200</v>
       </c>
@@ -11426,7 +13083,7 @@
         <v>12</v>
       </c>
       <c r="J190" t="str">
-        <f>B190</f>
+        <f t="shared" si="13"/>
         <v>macro knob 1 depth D</v>
       </c>
       <c r="K190">
@@ -11441,8 +13098,12 @@
       <c r="Q190" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -11465,7 +13126,7 @@
         <v>8</v>
       </c>
       <c r="J191" t="str">
-        <f>B191</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 position</v>
       </c>
       <c r="K191">
@@ -11480,8 +13141,12 @@
       <c r="Q191" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V191">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -11507,7 +13172,7 @@
         <v>8</v>
       </c>
       <c r="J192" t="str">
-        <f>B192</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 destination A</v>
       </c>
       <c r="K192">
@@ -11522,8 +13187,12 @@
       <c r="Q192" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V192">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -11549,7 +13218,7 @@
         <v>8</v>
       </c>
       <c r="J193" t="str">
-        <f>B193</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 start position A</v>
       </c>
       <c r="K193">
@@ -11564,8 +13233,12 @@
       <c r="Q193" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V193">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -11591,7 +13264,7 @@
         <v>8</v>
       </c>
       <c r="J194" t="str">
-        <f>B194</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 end position A</v>
       </c>
       <c r="K194">
@@ -11606,8 +13279,12 @@
       <c r="Q194" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V194">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -11633,7 +13310,7 @@
         <v>12</v>
       </c>
       <c r="J195" t="str">
-        <f>B195</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 depth A</v>
       </c>
       <c r="K195">
@@ -11648,8 +13325,12 @@
       <c r="Q195" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V195">
+        <f t="shared" ref="V195:V258" si="14">T195+U195*8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>200</v>
       </c>
@@ -11675,7 +13356,7 @@
         <v>8</v>
       </c>
       <c r="J196" t="str">
-        <f>B196</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 destination B</v>
       </c>
       <c r="K196">
@@ -11690,8 +13371,12 @@
       <c r="Q196" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V196">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -11717,7 +13402,7 @@
         <v>8</v>
       </c>
       <c r="J197" t="str">
-        <f>B197</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 start position B</v>
       </c>
       <c r="K197">
@@ -11732,8 +13417,12 @@
       <c r="Q197" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V197">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -11759,7 +13448,7 @@
         <v>8</v>
       </c>
       <c r="J198" t="str">
-        <f>B198</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 end position B</v>
       </c>
       <c r="K198">
@@ -11774,8 +13463,12 @@
       <c r="Q198" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V198">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -11801,7 +13494,7 @@
         <v>12</v>
       </c>
       <c r="J199" t="str">
-        <f>B199</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 depth B</v>
       </c>
       <c r="K199">
@@ -11816,8 +13509,12 @@
       <c r="Q199" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V199">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -11843,7 +13540,7 @@
         <v>8</v>
       </c>
       <c r="J200" t="str">
-        <f>B200</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 destination C</v>
       </c>
       <c r="K200">
@@ -11858,8 +13555,12 @@
       <c r="Q200" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V200">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -11885,7 +13586,7 @@
         <v>8</v>
       </c>
       <c r="J201" t="str">
-        <f>B201</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 start position C</v>
       </c>
       <c r="K201">
@@ -11900,8 +13601,12 @@
       <c r="Q201" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V201">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -11927,7 +13632,7 @@
         <v>8</v>
       </c>
       <c r="J202" t="str">
-        <f>B202</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 end position C</v>
       </c>
       <c r="K202">
@@ -11942,8 +13647,12 @@
       <c r="Q202" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V202">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -11969,7 +13678,7 @@
         <v>12</v>
       </c>
       <c r="J203" t="str">
-        <f>B203</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 depth C</v>
       </c>
       <c r="K203">
@@ -11984,8 +13693,12 @@
       <c r="Q203" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V203">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>200</v>
       </c>
@@ -12011,7 +13724,7 @@
         <v>8</v>
       </c>
       <c r="J204" t="str">
-        <f>B204</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 destination D</v>
       </c>
       <c r="K204">
@@ -12026,8 +13739,12 @@
       <c r="Q204" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V204">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>200</v>
       </c>
@@ -12053,7 +13770,7 @@
         <v>8</v>
       </c>
       <c r="J205" t="str">
-        <f>B205</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 start position D</v>
       </c>
       <c r="K205">
@@ -12068,8 +13785,12 @@
       <c r="Q205" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V205">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>200</v>
       </c>
@@ -12095,7 +13816,7 @@
         <v>8</v>
       </c>
       <c r="J206" t="str">
-        <f>B206</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 end position D</v>
       </c>
       <c r="K206">
@@ -12110,8 +13831,12 @@
       <c r="Q206" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V206">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>200</v>
       </c>
@@ -12137,7 +13862,7 @@
         <v>12</v>
       </c>
       <c r="J207" t="str">
-        <f>B207</f>
+        <f t="shared" si="13"/>
         <v>macro knob 2 depth D</v>
       </c>
       <c r="K207">
@@ -12152,8 +13877,12 @@
       <c r="Q207" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V207">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>200</v>
       </c>
@@ -12176,7 +13905,7 @@
         <v>8</v>
       </c>
       <c r="J208" t="str">
-        <f>B208</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 position</v>
       </c>
       <c r="K208">
@@ -12191,8 +13920,12 @@
       <c r="Q208" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V208">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>200</v>
       </c>
@@ -12218,7 +13951,7 @@
         <v>8</v>
       </c>
       <c r="J209" t="str">
-        <f>B209</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 destination A</v>
       </c>
       <c r="K209">
@@ -12233,8 +13966,12 @@
       <c r="Q209" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V209">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -12260,7 +13997,7 @@
         <v>8</v>
       </c>
       <c r="J210" t="str">
-        <f>B210</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 start position A</v>
       </c>
       <c r="K210">
@@ -12275,8 +14012,12 @@
       <c r="Q210" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V210">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>200</v>
       </c>
@@ -12302,7 +14043,7 @@
         <v>8</v>
       </c>
       <c r="J211" t="str">
-        <f>B211</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 end position A</v>
       </c>
       <c r="K211">
@@ -12317,8 +14058,12 @@
       <c r="Q211" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V211">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>200</v>
       </c>
@@ -12344,7 +14089,7 @@
         <v>12</v>
       </c>
       <c r="J212" t="str">
-        <f>B212</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 depth A</v>
       </c>
       <c r="K212">
@@ -12359,8 +14104,12 @@
       <c r="Q212" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V212">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>200</v>
       </c>
@@ -12386,7 +14135,7 @@
         <v>8</v>
       </c>
       <c r="J213" t="str">
-        <f>B213</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 destination B</v>
       </c>
       <c r="K213">
@@ -12401,8 +14150,12 @@
       <c r="Q213" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V213">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>200</v>
       </c>
@@ -12428,7 +14181,7 @@
         <v>8</v>
       </c>
       <c r="J214" t="str">
-        <f>B214</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 start position B</v>
       </c>
       <c r="K214">
@@ -12443,8 +14196,12 @@
       <c r="Q214" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V214">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>200</v>
       </c>
@@ -12470,7 +14227,7 @@
         <v>8</v>
       </c>
       <c r="J215" t="str">
-        <f>B215</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 end position B</v>
       </c>
       <c r="K215">
@@ -12485,8 +14242,12 @@
       <c r="Q215" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V215">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>200</v>
       </c>
@@ -12512,7 +14273,7 @@
         <v>12</v>
       </c>
       <c r="J216" t="str">
-        <f>B216</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 depth B</v>
       </c>
       <c r="K216">
@@ -12527,8 +14288,12 @@
       <c r="Q216" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V216">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>200</v>
       </c>
@@ -12554,7 +14319,7 @@
         <v>8</v>
       </c>
       <c r="J217" t="str">
-        <f>B217</f>
+        <f t="shared" si="13"/>
         <v>macro knob 3 destination C</v>
       </c>
       <c r="K217">
@@ -12569,8 +14334,12 @@
       <c r="Q217" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V217">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>200</v>
       </c>
@@ -12596,7 +14365,7 @@
         <v>8</v>
       </c>
       <c r="J218" t="str">
-        <f>B218</f>
+        <f t="shared" ref="J218:J281" si="15">B218</f>
         <v>macro knob 3 start position C</v>
       </c>
       <c r="K218">
@@ -12611,8 +14380,12 @@
       <c r="Q218" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V218">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>200</v>
       </c>
@@ -12638,7 +14411,7 @@
         <v>8</v>
       </c>
       <c r="J219" t="str">
-        <f>B219</f>
+        <f t="shared" si="15"/>
         <v>macro knob 3 end position C</v>
       </c>
       <c r="K219">
@@ -12653,8 +14426,12 @@
       <c r="Q219" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V219">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>200</v>
       </c>
@@ -12680,7 +14457,7 @@
         <v>12</v>
       </c>
       <c r="J220" t="str">
-        <f>B220</f>
+        <f t="shared" si="15"/>
         <v>macro knob 3 depth C</v>
       </c>
       <c r="K220">
@@ -12695,8 +14472,12 @@
       <c r="Q220" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V220">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>200</v>
       </c>
@@ -12722,7 +14503,7 @@
         <v>8</v>
       </c>
       <c r="J221" t="str">
-        <f>B221</f>
+        <f t="shared" si="15"/>
         <v>macro knob 3 destination D</v>
       </c>
       <c r="K221">
@@ -12737,8 +14518,12 @@
       <c r="Q221" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V221">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>200</v>
       </c>
@@ -12764,7 +14549,7 @@
         <v>8</v>
       </c>
       <c r="J222" t="str">
-        <f>B222</f>
+        <f t="shared" si="15"/>
         <v>macro knob 3 start position D</v>
       </c>
       <c r="K222">
@@ -12779,8 +14564,12 @@
       <c r="Q222" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V222">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>200</v>
       </c>
@@ -12806,7 +14595,7 @@
         <v>8</v>
       </c>
       <c r="J223" t="str">
-        <f>B223</f>
+        <f t="shared" si="15"/>
         <v>macro knob 3 end position D</v>
       </c>
       <c r="K223">
@@ -12821,8 +14610,12 @@
       <c r="Q223" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V223">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>200</v>
       </c>
@@ -12848,7 +14641,7 @@
         <v>12</v>
       </c>
       <c r="J224" t="str">
-        <f>B224</f>
+        <f t="shared" si="15"/>
         <v>macro knob 3 depth D</v>
       </c>
       <c r="K224">
@@ -12863,8 +14656,12 @@
       <c r="Q224" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V224">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>200</v>
       </c>
@@ -12887,7 +14684,7 @@
         <v>8</v>
       </c>
       <c r="J225" t="str">
-        <f>B225</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 position</v>
       </c>
       <c r="K225">
@@ -12902,8 +14699,12 @@
       <c r="Q225" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V225">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>200</v>
       </c>
@@ -12929,7 +14730,7 @@
         <v>8</v>
       </c>
       <c r="J226" t="str">
-        <f>B226</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 destination A</v>
       </c>
       <c r="K226">
@@ -12944,8 +14745,12 @@
       <c r="Q226" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V226">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>200</v>
       </c>
@@ -12971,7 +14776,7 @@
         <v>8</v>
       </c>
       <c r="J227" t="str">
-        <f>B227</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 start position A</v>
       </c>
       <c r="K227">
@@ -12986,8 +14791,12 @@
       <c r="Q227" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V227">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>200</v>
       </c>
@@ -13013,7 +14822,7 @@
         <v>8</v>
       </c>
       <c r="J228" t="str">
-        <f>B228</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 end position A</v>
       </c>
       <c r="K228">
@@ -13028,8 +14837,12 @@
       <c r="Q228" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V228">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>200</v>
       </c>
@@ -13055,7 +14868,7 @@
         <v>12</v>
       </c>
       <c r="J229" t="str">
-        <f>B229</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 depth A</v>
       </c>
       <c r="K229">
@@ -13070,8 +14883,12 @@
       <c r="Q229" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V229">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>200</v>
       </c>
@@ -13097,7 +14914,7 @@
         <v>8</v>
       </c>
       <c r="J230" t="str">
-        <f>B230</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 destination B</v>
       </c>
       <c r="K230">
@@ -13112,8 +14929,12 @@
       <c r="Q230" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V230">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>200</v>
       </c>
@@ -13139,7 +14960,7 @@
         <v>8</v>
       </c>
       <c r="J231" t="str">
-        <f>B231</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 start position B</v>
       </c>
       <c r="K231">
@@ -13154,8 +14975,12 @@
       <c r="Q231" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>200</v>
       </c>
@@ -13181,7 +15006,7 @@
         <v>8</v>
       </c>
       <c r="J232" t="str">
-        <f>B232</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 end position B</v>
       </c>
       <c r="K232">
@@ -13196,8 +15021,12 @@
       <c r="Q232" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V232">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>200</v>
       </c>
@@ -13223,7 +15052,7 @@
         <v>12</v>
       </c>
       <c r="J233" t="str">
-        <f>B233</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 depth B</v>
       </c>
       <c r="K233">
@@ -13238,8 +15067,12 @@
       <c r="Q233" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V233">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>200</v>
       </c>
@@ -13265,7 +15098,7 @@
         <v>8</v>
       </c>
       <c r="J234" t="str">
-        <f>B234</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 destination C</v>
       </c>
       <c r="K234">
@@ -13280,8 +15113,12 @@
       <c r="Q234" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V234">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>200</v>
       </c>
@@ -13307,7 +15144,7 @@
         <v>8</v>
       </c>
       <c r="J235" t="str">
-        <f>B235</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 start position C</v>
       </c>
       <c r="K235">
@@ -13322,8 +15159,12 @@
       <c r="Q235" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V235">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>200</v>
       </c>
@@ -13349,7 +15190,7 @@
         <v>8</v>
       </c>
       <c r="J236" t="str">
-        <f>B236</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 end position C</v>
       </c>
       <c r="K236">
@@ -13364,8 +15205,12 @@
       <c r="Q236" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V236">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>200</v>
       </c>
@@ -13391,7 +15236,7 @@
         <v>12</v>
       </c>
       <c r="J237" t="str">
-        <f>B237</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 depth C</v>
       </c>
       <c r="K237">
@@ -13406,8 +15251,12 @@
       <c r="Q237" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V237">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>200</v>
       </c>
@@ -13433,7 +15282,7 @@
         <v>8</v>
       </c>
       <c r="J238" t="str">
-        <f>B238</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 destination D</v>
       </c>
       <c r="K238">
@@ -13448,8 +15297,12 @@
       <c r="Q238" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V238">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>200</v>
       </c>
@@ -13475,7 +15328,7 @@
         <v>8</v>
       </c>
       <c r="J239" t="str">
-        <f>B239</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 start position D</v>
       </c>
       <c r="K239">
@@ -13490,8 +15343,12 @@
       <c r="Q239" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V239">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>200</v>
       </c>
@@ -13517,7 +15374,7 @@
         <v>8</v>
       </c>
       <c r="J240" t="str">
-        <f>B240</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 end position D</v>
       </c>
       <c r="K240">
@@ -13532,8 +15389,12 @@
       <c r="Q240" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V240">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>200</v>
       </c>
@@ -13559,7 +15420,7 @@
         <v>12</v>
       </c>
       <c r="J241" t="str">
-        <f>B241</f>
+        <f t="shared" si="15"/>
         <v>macro knob 4 depth D</v>
       </c>
       <c r="K241">
@@ -13574,8 +15435,12 @@
       <c r="Q241" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V241">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>200</v>
       </c>
@@ -13598,7 +15463,7 @@
         <v>8</v>
       </c>
       <c r="J242" t="str">
-        <f>B242</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 position</v>
       </c>
       <c r="K242">
@@ -13613,8 +15478,12 @@
       <c r="Q242" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V242">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>200</v>
       </c>
@@ -13640,7 +15509,7 @@
         <v>8</v>
       </c>
       <c r="J243" t="str">
-        <f>B243</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 destination A</v>
       </c>
       <c r="K243">
@@ -13655,8 +15524,12 @@
       <c r="Q243" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V243">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>200</v>
       </c>
@@ -13682,7 +15555,7 @@
         <v>8</v>
       </c>
       <c r="J244" t="str">
-        <f>B244</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 start position A</v>
       </c>
       <c r="K244">
@@ -13697,8 +15570,12 @@
       <c r="Q244" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V244">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>200</v>
       </c>
@@ -13724,7 +15601,7 @@
         <v>8</v>
       </c>
       <c r="J245" t="str">
-        <f>B245</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 end position A</v>
       </c>
       <c r="K245">
@@ -13739,8 +15616,12 @@
       <c r="Q245" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V245">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>200</v>
       </c>
@@ -13766,7 +15647,7 @@
         <v>12</v>
       </c>
       <c r="J246" t="str">
-        <f>B246</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 depth A</v>
       </c>
       <c r="K246">
@@ -13781,8 +15662,12 @@
       <c r="Q246" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V246">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>200</v>
       </c>
@@ -13808,7 +15693,7 @@
         <v>8</v>
       </c>
       <c r="J247" t="str">
-        <f>B247</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 destination B</v>
       </c>
       <c r="K247">
@@ -13823,8 +15708,12 @@
       <c r="Q247" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V247">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>200</v>
       </c>
@@ -13850,7 +15739,7 @@
         <v>8</v>
       </c>
       <c r="J248" t="str">
-        <f>B248</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 start position B</v>
       </c>
       <c r="K248">
@@ -13865,8 +15754,12 @@
       <c r="Q248" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V248">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>200</v>
       </c>
@@ -13892,7 +15785,7 @@
         <v>8</v>
       </c>
       <c r="J249" t="str">
-        <f>B249</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 end position B</v>
       </c>
       <c r="K249">
@@ -13907,8 +15800,12 @@
       <c r="Q249" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V249">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>200</v>
       </c>
@@ -13934,7 +15831,7 @@
         <v>12</v>
       </c>
       <c r="J250" t="str">
-        <f>B250</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 depth B</v>
       </c>
       <c r="K250">
@@ -13949,8 +15846,12 @@
       <c r="Q250" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V250">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>200</v>
       </c>
@@ -13976,7 +15877,7 @@
         <v>8</v>
       </c>
       <c r="J251" t="str">
-        <f>B251</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 destination C</v>
       </c>
       <c r="K251">
@@ -13991,8 +15892,12 @@
       <c r="Q251" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V251">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>200</v>
       </c>
@@ -14018,7 +15923,7 @@
         <v>8</v>
       </c>
       <c r="J252" t="str">
-        <f>B252</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 start position C</v>
       </c>
       <c r="K252">
@@ -14033,8 +15938,12 @@
       <c r="Q252" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V252">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>200</v>
       </c>
@@ -14060,7 +15969,7 @@
         <v>8</v>
       </c>
       <c r="J253" t="str">
-        <f>B253</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 end position C</v>
       </c>
       <c r="K253">
@@ -14075,8 +15984,12 @@
       <c r="Q253" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V253">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>200</v>
       </c>
@@ -14102,7 +16015,7 @@
         <v>12</v>
       </c>
       <c r="J254" t="str">
-        <f>B254</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 depth C</v>
       </c>
       <c r="K254">
@@ -14117,8 +16030,12 @@
       <c r="Q254" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V254">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>200</v>
       </c>
@@ -14144,7 +16061,7 @@
         <v>8</v>
       </c>
       <c r="J255" t="str">
-        <f>B255</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 destination D</v>
       </c>
       <c r="K255">
@@ -14159,8 +16076,12 @@
       <c r="Q255" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V255">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>200</v>
       </c>
@@ -14186,7 +16107,7 @@
         <v>8</v>
       </c>
       <c r="J256" t="str">
-        <f>B256</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 start position D</v>
       </c>
       <c r="K256">
@@ -14201,8 +16122,12 @@
       <c r="Q256" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V256">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>200</v>
       </c>
@@ -14228,7 +16153,7 @@
         <v>8</v>
       </c>
       <c r="J257" t="str">
-        <f>B257</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 end position D</v>
       </c>
       <c r="K257">
@@ -14243,8 +16168,12 @@
       <c r="Q257" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V257">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>200</v>
       </c>
@@ -14270,7 +16199,7 @@
         <v>12</v>
       </c>
       <c r="J258" t="str">
-        <f>B258</f>
+        <f t="shared" si="15"/>
         <v>macro knob 5 depth D</v>
       </c>
       <c r="K258">
@@ -14285,8 +16214,12 @@
       <c r="Q258" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V258">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>200</v>
       </c>
@@ -14309,7 +16242,7 @@
         <v>8</v>
       </c>
       <c r="J259" t="str">
-        <f>B259</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 position</v>
       </c>
       <c r="K259">
@@ -14324,8 +16257,12 @@
       <c r="Q259" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V259">
+        <f t="shared" ref="V259:V322" si="16">T259+U259*8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>200</v>
       </c>
@@ -14351,7 +16288,7 @@
         <v>8</v>
       </c>
       <c r="J260" t="str">
-        <f>B260</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 destination A</v>
       </c>
       <c r="K260">
@@ -14366,8 +16303,12 @@
       <c r="Q260" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>200</v>
       </c>
@@ -14393,7 +16334,7 @@
         <v>8</v>
       </c>
       <c r="J261" t="str">
-        <f>B261</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 start position A</v>
       </c>
       <c r="K261">
@@ -14408,8 +16349,12 @@
       <c r="Q261" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V261">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>200</v>
       </c>
@@ -14435,7 +16380,7 @@
         <v>8</v>
       </c>
       <c r="J262" t="str">
-        <f>B262</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 end position A</v>
       </c>
       <c r="K262">
@@ -14450,8 +16395,12 @@
       <c r="Q262" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V262">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>200</v>
       </c>
@@ -14477,7 +16426,7 @@
         <v>12</v>
       </c>
       <c r="J263" t="str">
-        <f>B263</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 depth A</v>
       </c>
       <c r="K263">
@@ -14492,8 +16441,12 @@
       <c r="Q263" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V263">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>200</v>
       </c>
@@ -14519,7 +16472,7 @@
         <v>8</v>
       </c>
       <c r="J264" t="str">
-        <f>B264</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 destination B</v>
       </c>
       <c r="K264">
@@ -14534,8 +16487,12 @@
       <c r="Q264" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V264">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>200</v>
       </c>
@@ -14561,7 +16518,7 @@
         <v>8</v>
       </c>
       <c r="J265" t="str">
-        <f>B265</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 start position B</v>
       </c>
       <c r="K265">
@@ -14576,8 +16533,12 @@
       <c r="Q265" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V265">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>200</v>
       </c>
@@ -14603,7 +16564,7 @@
         <v>8</v>
       </c>
       <c r="J266" t="str">
-        <f>B266</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 end position B</v>
       </c>
       <c r="K266">
@@ -14618,8 +16579,12 @@
       <c r="Q266" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V266">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>200</v>
       </c>
@@ -14645,7 +16610,7 @@
         <v>12</v>
       </c>
       <c r="J267" t="str">
-        <f>B267</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 depth B</v>
       </c>
       <c r="K267">
@@ -14660,8 +16625,12 @@
       <c r="Q267" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V267">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>200</v>
       </c>
@@ -14687,7 +16656,7 @@
         <v>8</v>
       </c>
       <c r="J268" t="str">
-        <f>B268</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 destination C</v>
       </c>
       <c r="K268">
@@ -14702,8 +16671,12 @@
       <c r="Q268" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V268">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>200</v>
       </c>
@@ -14729,7 +16702,7 @@
         <v>8</v>
       </c>
       <c r="J269" t="str">
-        <f>B269</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 start position C</v>
       </c>
       <c r="K269">
@@ -14744,8 +16717,12 @@
       <c r="Q269" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V269">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>200</v>
       </c>
@@ -14771,7 +16748,7 @@
         <v>8</v>
       </c>
       <c r="J270" t="str">
-        <f>B270</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 end position C</v>
       </c>
       <c r="K270">
@@ -14786,8 +16763,12 @@
       <c r="Q270" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V270">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>200</v>
       </c>
@@ -14813,7 +16794,7 @@
         <v>12</v>
       </c>
       <c r="J271" t="str">
-        <f>B271</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 depth C</v>
       </c>
       <c r="K271">
@@ -14828,8 +16809,12 @@
       <c r="Q271" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V271">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>200</v>
       </c>
@@ -14855,7 +16840,7 @@
         <v>8</v>
       </c>
       <c r="J272" t="str">
-        <f>B272</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 destination D</v>
       </c>
       <c r="K272">
@@ -14870,8 +16855,12 @@
       <c r="Q272" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V272">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>200</v>
       </c>
@@ -14897,7 +16886,7 @@
         <v>8</v>
       </c>
       <c r="J273" t="str">
-        <f>B273</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 start position D</v>
       </c>
       <c r="K273">
@@ -14912,8 +16901,12 @@
       <c r="Q273" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V273">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>200</v>
       </c>
@@ -14939,7 +16932,7 @@
         <v>8</v>
       </c>
       <c r="J274" t="str">
-        <f>B274</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 end position D</v>
       </c>
       <c r="K274">
@@ -14954,8 +16947,12 @@
       <c r="Q274" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V274">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>200</v>
       </c>
@@ -14981,7 +16978,7 @@
         <v>12</v>
       </c>
       <c r="J275" t="str">
-        <f>B275</f>
+        <f t="shared" si="15"/>
         <v>macro knob 6 depth D</v>
       </c>
       <c r="K275">
@@ -14996,8 +16993,12 @@
       <c r="Q275" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V275">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>200</v>
       </c>
@@ -15020,7 +17021,7 @@
         <v>8</v>
       </c>
       <c r="J276" t="str">
-        <f>B276</f>
+        <f t="shared" si="15"/>
         <v>macro knob 7 position</v>
       </c>
       <c r="K276">
@@ -15035,8 +17036,12 @@
       <c r="Q276" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V276">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>200</v>
       </c>
@@ -15062,7 +17067,7 @@
         <v>8</v>
       </c>
       <c r="J277" t="str">
-        <f>B277</f>
+        <f t="shared" si="15"/>
         <v>macro knob 7 destination A</v>
       </c>
       <c r="K277">
@@ -15077,8 +17082,12 @@
       <c r="Q277" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V277">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>200</v>
       </c>
@@ -15104,7 +17113,7 @@
         <v>8</v>
       </c>
       <c r="J278" t="str">
-        <f>B278</f>
+        <f t="shared" si="15"/>
         <v>macro knob 7 start position A</v>
       </c>
       <c r="K278">
@@ -15119,8 +17128,12 @@
       <c r="Q278" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V278">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>200</v>
       </c>
@@ -15146,7 +17159,7 @@
         <v>8</v>
       </c>
       <c r="J279" t="str">
-        <f>B279</f>
+        <f t="shared" si="15"/>
         <v>macro knob 7 end position A</v>
       </c>
       <c r="K279">
@@ -15161,8 +17174,12 @@
       <c r="Q279" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V279">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>200</v>
       </c>
@@ -15188,7 +17205,7 @@
         <v>12</v>
       </c>
       <c r="J280" t="str">
-        <f>B280</f>
+        <f t="shared" si="15"/>
         <v>macro knob 7 depth A</v>
       </c>
       <c r="K280">
@@ -15203,8 +17220,12 @@
       <c r="Q280" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V280">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>200</v>
       </c>
@@ -15230,7 +17251,7 @@
         <v>8</v>
       </c>
       <c r="J281" t="str">
-        <f>B281</f>
+        <f t="shared" si="15"/>
         <v>macro knob 7 destination B</v>
       </c>
       <c r="K281">
@@ -15245,8 +17266,12 @@
       <c r="Q281" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V281">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>200</v>
       </c>
@@ -15272,7 +17297,7 @@
         <v>8</v>
       </c>
       <c r="J282" t="str">
-        <f>B282</f>
+        <f t="shared" ref="J282:J309" si="17">B282</f>
         <v>macro knob 7 start position B</v>
       </c>
       <c r="K282">
@@ -15287,8 +17312,12 @@
       <c r="Q282" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V282">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>200</v>
       </c>
@@ -15314,7 +17343,7 @@
         <v>8</v>
       </c>
       <c r="J283" t="str">
-        <f>B283</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 end position B</v>
       </c>
       <c r="K283">
@@ -15329,8 +17358,12 @@
       <c r="Q283" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V283">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>200</v>
       </c>
@@ -15356,7 +17389,7 @@
         <v>12</v>
       </c>
       <c r="J284" t="str">
-        <f>B284</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 depth B</v>
       </c>
       <c r="K284">
@@ -15371,8 +17404,12 @@
       <c r="Q284" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V284">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>200</v>
       </c>
@@ -15398,7 +17435,7 @@
         <v>8</v>
       </c>
       <c r="J285" t="str">
-        <f>B285</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 destination C</v>
       </c>
       <c r="K285">
@@ -15413,8 +17450,12 @@
       <c r="Q285" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V285">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>200</v>
       </c>
@@ -15440,7 +17481,7 @@
         <v>8</v>
       </c>
       <c r="J286" t="str">
-        <f>B286</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 start position C</v>
       </c>
       <c r="K286">
@@ -15455,8 +17496,12 @@
       <c r="Q286" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V286">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>200</v>
       </c>
@@ -15482,7 +17527,7 @@
         <v>8</v>
       </c>
       <c r="J287" t="str">
-        <f>B287</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 end position C</v>
       </c>
       <c r="K287">
@@ -15497,8 +17542,12 @@
       <c r="Q287" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V287">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>200</v>
       </c>
@@ -15524,7 +17573,7 @@
         <v>12</v>
       </c>
       <c r="J288" t="str">
-        <f>B288</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 depth C</v>
       </c>
       <c r="K288">
@@ -15539,8 +17588,12 @@
       <c r="Q288" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V288">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>200</v>
       </c>
@@ -15566,7 +17619,7 @@
         <v>8</v>
       </c>
       <c r="J289" t="str">
-        <f>B289</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 destination D</v>
       </c>
       <c r="K289">
@@ -15581,8 +17634,12 @@
       <c r="Q289" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V289">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>200</v>
       </c>
@@ -15608,7 +17665,7 @@
         <v>8</v>
       </c>
       <c r="J290" t="str">
-        <f>B290</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 start position D</v>
       </c>
       <c r="K290">
@@ -15623,8 +17680,12 @@
       <c r="Q290" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V290">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>200</v>
       </c>
@@ -15650,7 +17711,7 @@
         <v>8</v>
       </c>
       <c r="J291" t="str">
-        <f>B291</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 end position D</v>
       </c>
       <c r="K291">
@@ -15665,8 +17726,12 @@
       <c r="Q291" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V291">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>200</v>
       </c>
@@ -15692,7 +17757,7 @@
         <v>12</v>
       </c>
       <c r="J292" t="str">
-        <f>B292</f>
+        <f t="shared" si="17"/>
         <v>macro knob 7 depth D</v>
       </c>
       <c r="K292">
@@ -15707,8 +17772,12 @@
       <c r="Q292" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V292">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>200</v>
       </c>
@@ -15731,7 +17800,7 @@
         <v>8</v>
       </c>
       <c r="J293" t="str">
-        <f>B293</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 position</v>
       </c>
       <c r="K293">
@@ -15746,8 +17815,12 @@
       <c r="Q293" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V293">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>200</v>
       </c>
@@ -15773,7 +17846,7 @@
         <v>8</v>
       </c>
       <c r="J294" t="str">
-        <f>B294</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 destination A</v>
       </c>
       <c r="K294">
@@ -15788,8 +17861,12 @@
       <c r="Q294" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V294">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>200</v>
       </c>
@@ -15815,7 +17892,7 @@
         <v>8</v>
       </c>
       <c r="J295" t="str">
-        <f>B295</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 start position A</v>
       </c>
       <c r="K295">
@@ -15830,8 +17907,12 @@
       <c r="Q295" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V295">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>200</v>
       </c>
@@ -15857,7 +17938,7 @@
         <v>8</v>
       </c>
       <c r="J296" t="str">
-        <f>B296</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 end position A</v>
       </c>
       <c r="K296">
@@ -15872,8 +17953,12 @@
       <c r="Q296" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V296">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>200</v>
       </c>
@@ -15899,7 +17984,7 @@
         <v>12</v>
       </c>
       <c r="J297" t="str">
-        <f>B297</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 depth A</v>
       </c>
       <c r="K297">
@@ -15914,8 +17999,12 @@
       <c r="Q297" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V297">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>200</v>
       </c>
@@ -15941,7 +18030,7 @@
         <v>8</v>
       </c>
       <c r="J298" t="str">
-        <f>B298</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 destination B</v>
       </c>
       <c r="K298">
@@ -15956,8 +18045,12 @@
       <c r="Q298" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V298">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>200</v>
       </c>
@@ -15983,7 +18076,7 @@
         <v>8</v>
       </c>
       <c r="J299" t="str">
-        <f>B299</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 start position B</v>
       </c>
       <c r="K299">
@@ -15998,8 +18091,12 @@
       <c r="Q299" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V299">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>200</v>
       </c>
@@ -16025,7 +18122,7 @@
         <v>8</v>
       </c>
       <c r="J300" t="str">
-        <f>B300</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 end position B</v>
       </c>
       <c r="K300">
@@ -16040,8 +18137,12 @@
       <c r="Q300" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V300">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>200</v>
       </c>
@@ -16067,7 +18168,7 @@
         <v>12</v>
       </c>
       <c r="J301" t="str">
-        <f>B301</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 depth B</v>
       </c>
       <c r="K301">
@@ -16082,8 +18183,12 @@
       <c r="Q301" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V301">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>200</v>
       </c>
@@ -16109,7 +18214,7 @@
         <v>8</v>
       </c>
       <c r="J302" t="str">
-        <f>B302</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 destination C</v>
       </c>
       <c r="K302">
@@ -16124,8 +18229,12 @@
       <c r="Q302" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V302">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>200</v>
       </c>
@@ -16151,7 +18260,7 @@
         <v>8</v>
       </c>
       <c r="J303" t="str">
-        <f>B303</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 start position C</v>
       </c>
       <c r="K303">
@@ -16166,8 +18275,12 @@
       <c r="Q303" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>200</v>
       </c>
@@ -16193,7 +18306,7 @@
         <v>8</v>
       </c>
       <c r="J304" t="str">
-        <f>B304</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 end position C</v>
       </c>
       <c r="K304">
@@ -16208,8 +18321,12 @@
       <c r="Q304" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V304">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>200</v>
       </c>
@@ -16235,7 +18352,7 @@
         <v>12</v>
       </c>
       <c r="J305" t="str">
-        <f>B305</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 depth C</v>
       </c>
       <c r="K305">
@@ -16250,8 +18367,12 @@
       <c r="Q305" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V305">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>200</v>
       </c>
@@ -16277,7 +18398,7 @@
         <v>8</v>
       </c>
       <c r="J306" t="str">
-        <f>B306</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 destination D</v>
       </c>
       <c r="K306">
@@ -16292,8 +18413,12 @@
       <c r="Q306" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V306">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>200</v>
       </c>
@@ -16319,7 +18444,7 @@
         <v>8</v>
       </c>
       <c r="J307" t="str">
-        <f>B307</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 start position D</v>
       </c>
       <c r="K307">
@@ -16334,8 +18459,12 @@
       <c r="Q307" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V307">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>200</v>
       </c>
@@ -16361,7 +18490,7 @@
         <v>8</v>
       </c>
       <c r="J308" t="str">
-        <f>B308</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 end position D</v>
       </c>
       <c r="K308">
@@ -16376,8 +18505,12 @@
       <c r="Q308" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V308">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>200</v>
       </c>
@@ -16403,7 +18536,7 @@
         <v>12</v>
       </c>
       <c r="J309" t="str">
-        <f>B309</f>
+        <f t="shared" si="17"/>
         <v>macro knob 8 depth D</v>
       </c>
       <c r="K309">
@@ -16418,8 +18551,12 @@
       <c r="Q309" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V309">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>356</v>
       </c>
@@ -16440,7 +18577,7 @@
         <v>8</v>
       </c>
       <c r="J310" t="str">
-        <f>CONCATENATE(R310," ",B310)</f>
+        <f t="shared" ref="J310:J333" si="18">CONCATENATE(R310," ",B310)</f>
         <v>D1  patch</v>
       </c>
       <c r="Q310" t="s">
@@ -16449,8 +18586,12 @@
       <c r="R310" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V310">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>356</v>
       </c>
@@ -16471,7 +18612,7 @@
         <v>8</v>
       </c>
       <c r="J311" t="str">
-        <f>CONCATENATE(R311," ",B311)</f>
+        <f t="shared" si="18"/>
         <v>D1  level</v>
       </c>
       <c r="Q311" t="s">
@@ -16480,8 +18621,12 @@
       <c r="R311" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V311">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>356</v>
       </c>
@@ -16502,7 +18647,7 @@
         <v>12</v>
       </c>
       <c r="J312" t="str">
-        <f>CONCATENATE(R312," ",B312)</f>
+        <f t="shared" si="18"/>
         <v>D1  pitch</v>
       </c>
       <c r="Q312" t="s">
@@ -16511,8 +18656,12 @@
       <c r="R312" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V312">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>356</v>
       </c>
@@ -16533,7 +18682,7 @@
         <v>8</v>
       </c>
       <c r="J313" t="str">
-        <f>CONCATENATE(R313," ",B313)</f>
+        <f t="shared" si="18"/>
         <v>D1  distortion</v>
       </c>
       <c r="Q313" t="s">
@@ -16542,8 +18691,12 @@
       <c r="R313" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V313">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>356</v>
       </c>
@@ -16564,7 +18717,7 @@
         <v>12</v>
       </c>
       <c r="J314" t="str">
-        <f>CONCATENATE(R314," ",B314)</f>
+        <f t="shared" si="18"/>
         <v>D1  EQ</v>
       </c>
       <c r="Q314" t="s">
@@ -16573,8 +18726,12 @@
       <c r="R314" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V314">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>356</v>
       </c>
@@ -16595,7 +18752,7 @@
         <v>12</v>
       </c>
       <c r="J315" t="str">
-        <f>CONCATENATE(R315," ",B315)</f>
+        <f t="shared" si="18"/>
         <v>D1  pan</v>
       </c>
       <c r="Q315" t="s">
@@ -16604,8 +18761,12 @@
       <c r="R315" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="316" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V315">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>364</v>
       </c>
@@ -16626,7 +18787,7 @@
         <v>8</v>
       </c>
       <c r="J316" s="4" t="str">
-        <f>CONCATENATE(R316," ",B316)</f>
+        <f t="shared" si="18"/>
         <v>D2 patch</v>
       </c>
       <c r="Q316" s="4" t="s">
@@ -16635,8 +18796,12 @@
       <c r="R316" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="317" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V316">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>364</v>
       </c>
@@ -16657,7 +18822,7 @@
         <v>8</v>
       </c>
       <c r="J317" s="4" t="str">
-        <f>CONCATENATE(R317," ",B317)</f>
+        <f t="shared" si="18"/>
         <v>D2 level</v>
       </c>
       <c r="Q317" s="4" t="s">
@@ -16666,8 +18831,12 @@
       <c r="R317" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="318" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V317">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>364</v>
       </c>
@@ -16688,7 +18857,7 @@
         <v>12</v>
       </c>
       <c r="J318" s="4" t="str">
-        <f>CONCATENATE(R318," ",B318)</f>
+        <f t="shared" si="18"/>
         <v>D2 pitch</v>
       </c>
       <c r="Q318" s="4" t="s">
@@ -16697,8 +18866,12 @@
       <c r="R318" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="319" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V318">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>364</v>
       </c>
@@ -16719,7 +18892,7 @@
         <v>8</v>
       </c>
       <c r="J319" s="4" t="str">
-        <f>CONCATENATE(R319," ",B319)</f>
+        <f t="shared" si="18"/>
         <v>D2 distortion</v>
       </c>
       <c r="Q319" s="4" t="s">
@@ -16728,8 +18901,12 @@
       <c r="R319" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="320" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V319">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>364</v>
       </c>
@@ -16750,7 +18927,7 @@
         <v>12</v>
       </c>
       <c r="J320" s="4" t="str">
-        <f>CONCATENATE(R320," ",B320)</f>
+        <f t="shared" si="18"/>
         <v>D2 EQ</v>
       </c>
       <c r="Q320" s="4" t="s">
@@ -16759,8 +18936,12 @@
       <c r="R320" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="321" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V320">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>364</v>
       </c>
@@ -16781,7 +18962,7 @@
         <v>12</v>
       </c>
       <c r="J321" s="4" t="str">
-        <f>CONCATENATE(R321," ",B321)</f>
+        <f t="shared" si="18"/>
         <v>D2 pan</v>
       </c>
       <c r="Q321" s="4" t="s">
@@ -16790,8 +18971,12 @@
       <c r="R321" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V321">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>365</v>
       </c>
@@ -16812,7 +18997,7 @@
         <v>8</v>
       </c>
       <c r="J322" s="6" t="str">
-        <f>CONCATENATE(R322," ",B322)</f>
+        <f t="shared" si="18"/>
         <v>D3 patch</v>
       </c>
       <c r="Q322" t="s">
@@ -16821,8 +19006,12 @@
       <c r="R322" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V322">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>365</v>
       </c>
@@ -16843,7 +19032,7 @@
         <v>8</v>
       </c>
       <c r="J323" s="6" t="str">
-        <f>CONCATENATE(R323," ",B323)</f>
+        <f t="shared" si="18"/>
         <v>D3 level</v>
       </c>
       <c r="Q323" t="s">
@@ -16852,8 +19041,12 @@
       <c r="R323" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V323">
+        <f t="shared" ref="V323:V368" si="19">T323+U323*8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>365</v>
       </c>
@@ -16874,7 +19067,7 @@
         <v>12</v>
       </c>
       <c r="J324" s="6" t="str">
-        <f>CONCATENATE(R324," ",B324)</f>
+        <f t="shared" si="18"/>
         <v>D3 pitch</v>
       </c>
       <c r="Q324" t="s">
@@ -16883,8 +19076,12 @@
       <c r="R324" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V324">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>365</v>
       </c>
@@ -16905,7 +19102,7 @@
         <v>8</v>
       </c>
       <c r="J325" s="6" t="str">
-        <f>CONCATENATE(R325," ",B325)</f>
+        <f t="shared" si="18"/>
         <v>D3 distortion</v>
       </c>
       <c r="Q325" t="s">
@@ -16914,8 +19111,12 @@
       <c r="R325" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V325">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>365</v>
       </c>
@@ -16936,7 +19137,7 @@
         <v>12</v>
       </c>
       <c r="J326" s="6" t="str">
-        <f>CONCATENATE(R326," ",B326)</f>
+        <f t="shared" si="18"/>
         <v>D3 EQ</v>
       </c>
       <c r="Q326" t="s">
@@ -16945,8 +19146,12 @@
       <c r="R326" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V326">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>365</v>
       </c>
@@ -16967,7 +19172,7 @@
         <v>12</v>
       </c>
       <c r="J327" s="6" t="str">
-        <f>CONCATENATE(R327," ",B327)</f>
+        <f t="shared" si="18"/>
         <v>D3 pan</v>
       </c>
       <c r="Q327" t="s">
@@ -16976,8 +19181,12 @@
       <c r="R327" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="328" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V327">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>366</v>
       </c>
@@ -16998,7 +19207,7 @@
         <v>8</v>
       </c>
       <c r="J328" s="4" t="str">
-        <f>CONCATENATE(R328," ",B328)</f>
+        <f t="shared" si="18"/>
         <v>D4 patch</v>
       </c>
       <c r="Q328" s="4" t="s">
@@ -17007,8 +19216,12 @@
       <c r="R328" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="329" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V328">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>366</v>
       </c>
@@ -17029,7 +19242,7 @@
         <v>8</v>
       </c>
       <c r="J329" s="4" t="str">
-        <f>CONCATENATE(R329," ",B329)</f>
+        <f t="shared" si="18"/>
         <v>D4 level</v>
       </c>
       <c r="Q329" s="4" t="s">
@@ -17038,8 +19251,12 @@
       <c r="R329" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="330" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V329">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>366</v>
       </c>
@@ -17060,7 +19277,7 @@
         <v>12</v>
       </c>
       <c r="J330" s="4" t="str">
-        <f>CONCATENATE(R330," ",B330)</f>
+        <f t="shared" si="18"/>
         <v>D4 pitch</v>
       </c>
       <c r="Q330" s="4" t="s">
@@ -17069,8 +19286,12 @@
       <c r="R330" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="331" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V330">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>366</v>
       </c>
@@ -17091,7 +19312,7 @@
         <v>8</v>
       </c>
       <c r="J331" s="4" t="str">
-        <f>CONCATENATE(R331," ",B331)</f>
+        <f t="shared" si="18"/>
         <v>D4 distortion</v>
       </c>
       <c r="Q331" s="4" t="s">
@@ -17100,8 +19321,12 @@
       <c r="R331" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="332" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V331">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>366</v>
       </c>
@@ -17122,7 +19347,7 @@
         <v>12</v>
       </c>
       <c r="J332" s="4" t="str">
-        <f>CONCATENATE(R332," ",B332)</f>
+        <f t="shared" si="18"/>
         <v>D4 EQ</v>
       </c>
       <c r="Q332" s="4" t="s">
@@ -17131,8 +19356,12 @@
       <c r="R332" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="333" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V332">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>366</v>
       </c>
@@ -17153,7 +19382,7 @@
         <v>12</v>
       </c>
       <c r="J333" s="4" t="str">
-        <f>CONCATENATE(R333," ",B333)</f>
+        <f t="shared" si="18"/>
         <v>D4 pan</v>
       </c>
       <c r="Q333" s="4" t="s">
@@ -17162,8 +19391,12 @@
       <c r="R333" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="334" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V333">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>372</v>
       </c>
@@ -17185,7 +19418,7 @@
         <v>8</v>
       </c>
       <c r="J334" s="6" t="str">
-        <f>B334</f>
+        <f t="shared" ref="J334:J353" si="20">B334</f>
         <v>S1 Send</v>
       </c>
       <c r="Q334" s="6" t="s">
@@ -17194,13 +19427,17 @@
       <c r="R334" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="335" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V334">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>372</v>
       </c>
       <c r="B335" s="6" t="str">
-        <f t="shared" ref="B335:B338" si="0">CONCATENATE(R335," Send")</f>
+        <f t="shared" ref="B335:B338" si="21">CONCATENATE(R335," Send")</f>
         <v>S2 Send</v>
       </c>
       <c r="C335" s="7">
@@ -17217,7 +19454,7 @@
         <v>8</v>
       </c>
       <c r="J335" s="6" t="str">
-        <f>B335</f>
+        <f t="shared" si="20"/>
         <v>S2 Send</v>
       </c>
       <c r="Q335" s="6" t="s">
@@ -17226,13 +19463,17 @@
       <c r="R335" s="6" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="336" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V335">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>372</v>
       </c>
       <c r="B336" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>D1 Send</v>
       </c>
       <c r="C336" s="7">
@@ -17249,7 +19490,7 @@
         <v>8</v>
       </c>
       <c r="J336" s="6" t="str">
-        <f>B336</f>
+        <f t="shared" si="20"/>
         <v>D1 Send</v>
       </c>
       <c r="Q336" s="6" t="s">
@@ -17258,13 +19499,17 @@
       <c r="R336" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="337" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V336">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>372</v>
       </c>
       <c r="B337" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>D2 Send</v>
       </c>
       <c r="C337" s="7">
@@ -17281,7 +19526,7 @@
         <v>8</v>
       </c>
       <c r="J337" s="6" t="str">
-        <f>B337</f>
+        <f t="shared" si="20"/>
         <v>D2 Send</v>
       </c>
       <c r="Q337" s="6" t="s">
@@ -17290,13 +19535,17 @@
       <c r="R337" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="338" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V337">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>372</v>
       </c>
       <c r="B338" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>D3 Send</v>
       </c>
       <c r="C338" s="7">
@@ -17313,7 +19562,7 @@
         <v>8</v>
       </c>
       <c r="J338" s="6" t="str">
-        <f>B338</f>
+        <f t="shared" si="20"/>
         <v>D3 Send</v>
       </c>
       <c r="Q338" s="6" t="s">
@@ -17322,8 +19571,12 @@
       <c r="R338" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="339" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V338">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>372</v>
       </c>
@@ -17345,7 +19598,7 @@
         <v>8</v>
       </c>
       <c r="J339" s="6" t="str">
-        <f>B339</f>
+        <f t="shared" si="20"/>
         <v>D4 Send</v>
       </c>
       <c r="Q339" s="6" t="s">
@@ -17354,8 +19607,12 @@
       <c r="R339" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="340" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V339">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>372</v>
       </c>
@@ -17376,7 +19633,7 @@
         <v>8</v>
       </c>
       <c r="J340" s="6" t="str">
-        <f>B340</f>
+        <f t="shared" si="20"/>
         <v>type</v>
       </c>
       <c r="O340" s="6" t="s">
@@ -17385,8 +19642,12 @@
       <c r="Q340" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="341" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V340">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>372</v>
       </c>
@@ -17407,14 +19668,18 @@
         <v>8</v>
       </c>
       <c r="J341" s="6" t="str">
-        <f>B341</f>
+        <f t="shared" si="20"/>
         <v>decay</v>
       </c>
       <c r="Q341" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="342" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V341">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>372</v>
       </c>
@@ -17435,14 +19700,18 @@
         <v>8</v>
       </c>
       <c r="J342" s="6" t="str">
-        <f>B342</f>
+        <f t="shared" si="20"/>
         <v>damping</v>
       </c>
       <c r="Q342" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="343" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V342">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>382</v>
       </c>
@@ -17464,7 +19733,7 @@
         <v>8</v>
       </c>
       <c r="J343" s="6" t="str">
-        <f>B343</f>
+        <f t="shared" si="20"/>
         <v>S1 Send</v>
       </c>
       <c r="Q343" s="6" t="s">
@@ -17473,13 +19742,17 @@
       <c r="R343" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="344" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V343">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>382</v>
       </c>
       <c r="B344" s="6" t="str">
-        <f t="shared" ref="B344:B347" si="1">CONCATENATE(R344," Send")</f>
+        <f t="shared" ref="B344:B347" si="22">CONCATENATE(R344," Send")</f>
         <v>S2 Send</v>
       </c>
       <c r="C344" s="7">
@@ -17496,7 +19769,7 @@
         <v>8</v>
       </c>
       <c r="J344" s="6" t="str">
-        <f>B344</f>
+        <f t="shared" si="20"/>
         <v>S2 Send</v>
       </c>
       <c r="Q344" s="6" t="s">
@@ -17505,13 +19778,17 @@
       <c r="R344" s="6" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="345" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V344">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>382</v>
       </c>
       <c r="B345" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>D1 Send</v>
       </c>
       <c r="C345" s="7">
@@ -17528,7 +19805,7 @@
         <v>8</v>
       </c>
       <c r="J345" s="6" t="str">
-        <f>B345</f>
+        <f t="shared" si="20"/>
         <v>D1 Send</v>
       </c>
       <c r="Q345" s="6" t="s">
@@ -17537,13 +19814,17 @@
       <c r="R345" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="346" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V345">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>382</v>
       </c>
       <c r="B346" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>D2 Send</v>
       </c>
       <c r="C346" s="7">
@@ -17560,7 +19841,7 @@
         <v>8</v>
       </c>
       <c r="J346" s="6" t="str">
-        <f>B346</f>
+        <f t="shared" si="20"/>
         <v>D2 Send</v>
       </c>
       <c r="Q346" s="6" t="s">
@@ -17569,13 +19850,17 @@
       <c r="R346" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="347" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V346">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>382</v>
       </c>
       <c r="B347" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>D3 Send</v>
       </c>
       <c r="C347" s="7">
@@ -17592,7 +19877,7 @@
         <v>8</v>
       </c>
       <c r="J347" s="6" t="str">
-        <f>B347</f>
+        <f t="shared" si="20"/>
         <v>D3 Send</v>
       </c>
       <c r="Q347" s="6" t="s">
@@ -17601,8 +19886,12 @@
       <c r="R347" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="348" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V347">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>382</v>
       </c>
@@ -17624,7 +19913,7 @@
         <v>8</v>
       </c>
       <c r="J348" s="6" t="str">
-        <f>B348</f>
+        <f t="shared" si="20"/>
         <v>D4 Send</v>
       </c>
       <c r="Q348" s="6" t="s">
@@ -17633,8 +19922,12 @@
       <c r="R348" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="349" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V348">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>382</v>
       </c>
@@ -17655,14 +19948,18 @@
         <v>8</v>
       </c>
       <c r="J349" s="6" t="str">
-        <f>B349</f>
+        <f t="shared" si="20"/>
         <v>time</v>
       </c>
       <c r="Q349" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="350" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V349">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>382</v>
       </c>
@@ -17683,14 +19980,18 @@
         <v>8</v>
       </c>
       <c r="J350" s="6" t="str">
-        <f>B350</f>
+        <f t="shared" si="20"/>
         <v>time sync</v>
       </c>
       <c r="Q350" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="351" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V350">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>382</v>
       </c>
@@ -17711,14 +20012,18 @@
         <v>8</v>
       </c>
       <c r="J351" s="6" t="str">
-        <f>B351</f>
+        <f t="shared" si="20"/>
         <v>feedback</v>
       </c>
       <c r="Q351" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="352" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V351">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>382</v>
       </c>
@@ -17739,14 +20044,18 @@
         <v>8</v>
       </c>
       <c r="J352" s="6" t="str">
-        <f>B352</f>
+        <f t="shared" si="20"/>
         <v>width</v>
       </c>
       <c r="Q352" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="353" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V352">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>382</v>
       </c>
@@ -17767,7 +20076,7 @@
         <v>8</v>
       </c>
       <c r="J353" s="6" t="str">
-        <f>B353</f>
+        <f t="shared" si="20"/>
         <v>left-right ratio</v>
       </c>
       <c r="O353" s="6" t="s">
@@ -17776,8 +20085,12 @@
       <c r="Q353" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V353">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>382</v>
       </c>
@@ -17800,7 +20113,7 @@
         <v>8</v>
       </c>
       <c r="J354" s="6" t="str">
-        <f t="shared" ref="J354:J368" si="2">B354</f>
+        <f t="shared" ref="J354:J368" si="23">B354</f>
         <v>slew rate</v>
       </c>
       <c r="K354" s="6"/>
@@ -17812,8 +20125,12 @@
       <c r="Q354" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V354">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>387</v>
       </c>
@@ -17834,14 +20151,18 @@
         <v>12</v>
       </c>
       <c r="J355" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>frequency</v>
       </c>
       <c r="Q355" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V355">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>387</v>
       </c>
@@ -17862,14 +20183,18 @@
         <v>8</v>
       </c>
       <c r="J356" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>resonance</v>
       </c>
       <c r="Q356" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V356">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>388</v>
       </c>
@@ -17894,7 +20219,7 @@
         <v>8</v>
       </c>
       <c r="J357" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S1 source</v>
       </c>
       <c r="Q357" s="6" t="s">
@@ -17903,8 +20228,12 @@
       <c r="R357" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V357">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>388</v>
       </c>
@@ -17929,7 +20258,7 @@
         <v>8</v>
       </c>
       <c r="J358" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S1 attack</v>
       </c>
       <c r="Q358" s="6" t="s">
@@ -17938,8 +20267,12 @@
       <c r="R358" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V358">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>388</v>
       </c>
@@ -17964,7 +20297,7 @@
         <v>8</v>
       </c>
       <c r="J359" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S1 hold</v>
       </c>
       <c r="Q359" s="6" t="s">
@@ -17973,8 +20306,12 @@
       <c r="R359" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V359">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>388</v>
       </c>
@@ -17999,7 +20336,7 @@
         <v>8</v>
       </c>
       <c r="J360" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S1 decay</v>
       </c>
       <c r="Q360" s="6" t="s">
@@ -18008,8 +20345,12 @@
       <c r="R360" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V360">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -18034,7 +20375,7 @@
         <v>8</v>
       </c>
       <c r="J361" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S1 depth</v>
       </c>
       <c r="Q361" s="6" t="s">
@@ -18043,8 +20384,12 @@
       <c r="R361" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V361">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>388</v>
       </c>
@@ -18069,7 +20414,7 @@
         <v>8</v>
       </c>
       <c r="J362" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S2 source</v>
       </c>
       <c r="Q362" s="6" t="s">
@@ -18078,8 +20423,12 @@
       <c r="R362" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V362">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>388</v>
       </c>
@@ -18104,7 +20453,7 @@
         <v>8</v>
       </c>
       <c r="J363" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S2 attack</v>
       </c>
       <c r="Q363" s="6" t="s">
@@ -18113,8 +20462,12 @@
       <c r="R363" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V363">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>388</v>
       </c>
@@ -18139,7 +20492,7 @@
         <v>8</v>
       </c>
       <c r="J364" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S2 hold</v>
       </c>
       <c r="Q364" s="6" t="s">
@@ -18148,8 +20501,12 @@
       <c r="R364" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V364">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>388</v>
       </c>
@@ -18174,7 +20531,7 @@
         <v>8</v>
       </c>
       <c r="J365" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S2 decay</v>
       </c>
       <c r="Q365" s="6" t="s">
@@ -18183,8 +20540,12 @@
       <c r="R365" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V365">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>388</v>
       </c>
@@ -18209,7 +20570,7 @@
         <v>8</v>
       </c>
       <c r="J366" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S2 depth</v>
       </c>
       <c r="Q366" s="6" t="s">
@@ -18218,8 +20579,12 @@
       <c r="R366" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V366">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>390</v>
       </c>
@@ -18240,14 +20605,18 @@
         <v>8</v>
       </c>
       <c r="J367" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S1 level</v>
       </c>
       <c r="Q367" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V367">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>390</v>
       </c>
@@ -18268,11 +20637,15 @@
         <v>8</v>
       </c>
       <c r="J368" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>S1 level</v>
       </c>
       <c r="Q368" s="6" t="s">
         <v>371</v>
+      </c>
+      <c r="V368">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
